--- a/docs/20241202_package_iter_times/package_iter_times.xlsx
+++ b/docs/20241202_package_iter_times/package_iter_times.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\workspace\ptyrad\docs\20241202_package_iter_times\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CFAE25-C670-4788-AA82-CFA15779CCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA78212-0430-46A4-9B6F-A206543EB3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="322" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="261" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="benchmark" sheetId="1" r:id="rId1"/>
     <sheet name="convergence" sheetId="4" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">convergence!$I$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">convergence!$I$2:$I$201</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">convergence!$J$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">convergence!$J$2:$J$201</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">convergence!$K$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">convergence!$K$2:$K$201</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -135,6 +127,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -272,6 +267,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -390,7 +386,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1530860130483111"/>
+          <c:y val="0.17484760556057699"/>
+          <c:w val="0.82140318192965778"/>
+          <c:h val="0.67294853541504729"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -883,6 +889,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39448269036182793"/>
+              <c:y val="0.90652488840247125"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1090,8 +1104,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.15277042183242553"/>
           <c:y val="0.18688544541203111"/>
-          <c:w val="0.43273916410930613"/>
-          <c:h val="4.9475736887535357E-2"/>
+          <c:w val="0.45361169632974935"/>
+          <c:h val="8.174730208035022E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1107,7 +1121,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1245,7 +1259,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15368634870350814"/>
+          <c:y val="0.17507101830001337"/>
+          <c:w val="0.82070280417693298"/>
+          <c:h val="0.66929935819556907"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1706,6 +1730,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44643153085767923"/>
+              <c:y val="0.90963673487561458"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1911,8 +1943,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14237242783893081"/>
-          <c:y val="0.19093527622014272"/>
+          <c:x val="0.15401377155931009"/>
+          <c:y val="0.19739792510797452"/>
           <c:w val="0.43400788180783506"/>
           <c:h val="4.9405205257956483E-2"/>
         </c:manualLayout>
@@ -1930,7 +1962,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2117,7 +2149,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15223638665306619"/>
+          <c:y val="0.1976029848105948"/>
+          <c:w val="0.82239439312993523"/>
+          <c:h val="0.64862051299134671"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2673,8 +2715,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.46707963481906023"/>
-              <c:y val="0.90790058411737684"/>
+              <c:x val="0.46707966861297201"/>
+              <c:y val="0.90987041391502521"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2888,8 +2930,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.5348566066353253"/>
-          <c:y val="0.19968241668395428"/>
+          <c:x val="0.52032098317385223"/>
+          <c:y val="0.21066141296462018"/>
           <c:w val="0.43008934904795132"/>
           <c:h val="5.4973832061938108E-2"/>
         </c:manualLayout>
@@ -2907,7 +2949,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3084,7 +3126,7 @@
             <c:numRef>
               <c:f>convergence!$E$2:$E$201</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -3726,7 +3768,7 @@
             <c:numRef>
               <c:f>convergence!$F$2:$F$201</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -4368,7 +4410,7 @@
             <c:numRef>
               <c:f>convergence!$G$2:$G$201</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -5102,7 +5144,9 @@
       <c:valAx>
         <c:axId val="1029572032"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000003E-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5175,7 +5219,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5224,8 +5268,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43700572054920139"/>
-          <c:y val="0.20638020712843089"/>
+          <c:x val="0.17436517195445897"/>
+          <c:y val="0.72741180448372889"/>
           <c:w val="0.54200179819392558"/>
           <c:h val="4.9169924563625352E-2"/>
         </c:manualLayout>
@@ -5243,7 +5287,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5408,7 +5452,7 @@
             <c:numRef>
               <c:f>convergence!$E$2:$E$201</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -6050,7 +6094,7 @@
             <c:numRef>
               <c:f>convergence!$F$2:$F$201</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -6692,7 +6736,7 @@
             <c:numRef>
               <c:f>convergence!$G$2:$G$201</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -7424,6 +7468,7 @@
       <c:valAx>
         <c:axId val="1029572032"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7497,7 +7542,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13154,15 +13199,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>346362</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>166006</xdr:rowOff>
+      <xdr:colOff>391185</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>65153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>129885</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:colOff>174708</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13190,15 +13235,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>372339</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>159822</xdr:rowOff>
+      <xdr:colOff>338721</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>70175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13233,8 +13278,8 @@
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>110837</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13269,8 +13314,8 @@
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>166255</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13642,91 +13687,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF52" sqref="AF52"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE41" sqref="AE41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="3" width="13.109375" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" customWidth="1"/>
-    <col min="31" max="31" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="3" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="1"/>
+    <col min="31" max="31" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="20"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="19"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="20"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="22"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="21"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="22"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -13772,7 +13817,7 @@
       </c>
       <c r="AC4" s="5"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -13855,7 +13900,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -13914,7 +13959,7 @@
       </c>
       <c r="AC6" s="13"/>
     </row>
-    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -13997,78 +14042,78 @@
         <v>6.343</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="20"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="18" t="s">
+      <c r="V9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="19"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="20"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="22"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="20" t="s">
+      <c r="V10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="21"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="22"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -14112,7 +14157,7 @@
       </c>
       <c r="AC11" s="5"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -14195,7 +14240,7 @@
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -14254,7 +14299,7 @@
       </c>
       <c r="AC13" s="13"/>
     </row>
-    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
@@ -14337,78 +14382,78 @@
         <v>11.814</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="20"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="18" t="s">
+      <c r="V16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="19"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="20"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="22"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="20" t="s">
+      <c r="V17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="21"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="22"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>4</v>
@@ -14452,7 +14497,7 @@
       </c>
       <c r="AC18" s="5"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
@@ -14535,7 +14580,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>1</v>
       </c>
@@ -14594,7 +14639,7 @@
       </c>
       <c r="AC20" s="13"/>
     </row>
-    <row r="21" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>2</v>
       </c>
@@ -14677,78 +14722,78 @@
         <v>5.4740000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="18" t="s">
+      <c r="L23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="20"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="18" t="s">
+      <c r="V23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="19"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="20"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="22"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="20" t="s">
+      <c r="V24" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="21"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="22"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>4</v>
@@ -14792,7 +14837,7 @@
       </c>
       <c r="AC25" s="5"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>0</v>
       </c>
@@ -14875,7 +14920,7 @@
         <v>0.76900000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
@@ -14934,7 +14979,7 @@
       </c>
       <c r="AC27" s="13"/>
     </row>
-    <row r="28" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>2</v>
       </c>
@@ -15017,78 +15062,78 @@
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="18" t="s">
+      <c r="L30" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="20"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="18" t="s">
+      <c r="V30" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="19"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="20"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="22"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="20" t="s">
+      <c r="V31" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="21"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="22"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>4</v>
@@ -15132,7 +15177,7 @@
       </c>
       <c r="AC32" s="5"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>0</v>
       </c>
@@ -15215,7 +15260,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>1</v>
       </c>
@@ -15274,7 +15319,7 @@
       </c>
       <c r="AC34" s="13"/>
     </row>
-    <row r="35" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>2</v>
       </c>
@@ -15357,78 +15402,78 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="20"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="18" t="s">
+      <c r="L37" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="20"/>
       <c r="U37" s="1"/>
-      <c r="V37" s="18" t="s">
+      <c r="V37" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="18"/>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="19"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="20"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="20" t="s">
+      <c r="L38" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="22"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="20" t="s">
+      <c r="V38" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="21"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="22"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" t="s">
         <v>4</v>
@@ -15472,7 +15517,7 @@
       </c>
       <c r="AC39" s="5"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>0</v>
       </c>
@@ -15555,7 +15600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>1</v>
       </c>
@@ -15614,7 +15659,7 @@
       </c>
       <c r="AC41" s="13"/>
     </row>
-    <row r="42" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>2</v>
       </c>
@@ -15697,78 +15742,78 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="20"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="18" t="s">
+      <c r="L44" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="20"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="18" t="s">
+      <c r="V44" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
-      <c r="AC44" s="19"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="20"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="22"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="20" t="s">
+      <c r="L45" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="22"/>
       <c r="U45" s="4"/>
-      <c r="V45" s="20" t="s">
+      <c r="V45" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="21"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="22"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" t="s">
         <v>4</v>
@@ -15812,7 +15857,7 @@
       </c>
       <c r="AC46" s="5"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
@@ -15895,7 +15940,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>1</v>
       </c>
@@ -15956,7 +16001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>2</v>
       </c>
@@ -16039,237 +16084,237 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="17"/>
-      <c r="AC51" s="17"/>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="17"/>
-      <c r="AA52" s="17"/>
-      <c r="AB52" s="17"/>
-      <c r="AC52" s="17"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="17"/>
-      <c r="AA53" s="17"/>
-      <c r="AB53" s="17"/>
-      <c r="AC53" s="17"/>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="17"/>
-      <c r="AA54" s="17"/>
-      <c r="AB54" s="17"/>
-      <c r="AC54" s="17"/>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="17"/>
-      <c r="AA55" s="17"/>
-      <c r="AB55" s="17"/>
-      <c r="AC55" s="17"/>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
-      <c r="Z56" s="17"/>
-      <c r="AA56" s="17"/>
-      <c r="AB56" s="17"/>
-      <c r="AC56" s="17"/>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
-      <c r="W57" s="17"/>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="17"/>
-      <c r="Z57" s="17"/>
-      <c r="AA57" s="17"/>
-      <c r="AB57" s="17"/>
-      <c r="AC57" s="17"/>
-    </row>
-    <row r="63" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="18"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="18"/>
+      <c r="Y52" s="18"/>
+      <c r="Z52" s="18"/>
+      <c r="AA52" s="18"/>
+      <c r="AB52" s="18"/>
+      <c r="AC52" s="18"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="18"/>
+      <c r="Y53" s="18"/>
+      <c r="Z53" s="18"/>
+      <c r="AA53" s="18"/>
+      <c r="AB53" s="18"/>
+      <c r="AC53" s="18"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="18"/>
+      <c r="AA54" s="18"/>
+      <c r="AB54" s="18"/>
+      <c r="AC54" s="18"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="18"/>
+      <c r="AA55" s="18"/>
+      <c r="AB55" s="18"/>
+      <c r="AC55" s="18"/>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18"/>
+      <c r="Y56" s="18"/>
+      <c r="Z56" s="18"/>
+      <c r="AA56" s="18"/>
+      <c r="AB56" s="18"/>
+      <c r="AC56" s="18"/>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
+      <c r="Y57" s="18"/>
+      <c r="Z57" s="18"/>
+      <c r="AA57" s="18"/>
+      <c r="AB57" s="18"/>
+      <c r="AC57" s="18"/>
+    </row>
+    <row r="63" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="19"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D64" s="19"/>
+      <c r="E64" s="20"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
       <c r="C65">
         <v>1</v>
@@ -16281,7 +16326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>0</v>
       </c>
@@ -16295,7 +16340,7 @@
         <v>19.001000000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>1</v>
       </c>
@@ -16309,7 +16354,7 @@
         <v>84.075000000000003</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
         <v>2</v>
       </c>
@@ -16323,8 +16368,8 @@
         <v>145.571</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>22</v>
       </c>
@@ -16338,7 +16383,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
       <c r="C71" s="15">
         <v>16</v>
@@ -16362,7 +16407,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
         <v>0</v>
       </c>
@@ -16388,7 +16433,7 @@
         <v>13.712</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
         <v>1</v>
       </c>
@@ -16414,7 +16459,7 @@
         <v>11.145</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="6" t="s">
         <v>2</v>
       </c>
@@ -16497,12 +16542,15 @@
   <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="7" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16512,17 +16560,17 @@
       <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.32629999999999998</v>
       </c>
@@ -16532,20 +16580,20 @@
       <c r="C2">
         <v>0.21890000000000001</v>
       </c>
-      <c r="E2">
-        <f>(A2-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E2" s="17">
+        <f t="shared" ref="E2:E33" si="0">(A2-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
         <v>1</v>
       </c>
-      <c r="F2">
-        <f>(B2-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F2" s="17">
+        <f t="shared" ref="F2:F33" si="1">(B2-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
         <v>1</v>
       </c>
-      <c r="G2">
-        <f>(C2-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G2" s="17">
+        <f t="shared" ref="G2:G33" si="2">(C2-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.25340000000000001</v>
       </c>
@@ -16555,27 +16603,27 @@
       <c r="C3">
         <v>0.2122</v>
       </c>
-      <c r="E3">
-        <f>(A3-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E3" s="17">
+        <f t="shared" si="0"/>
         <v>0.30038387715930925</v>
       </c>
-      <c r="F3">
-        <f>(B3-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F3" s="17">
+        <f t="shared" si="1"/>
         <v>0.77747252747252749</v>
       </c>
-      <c r="G3">
-        <f>(C3-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G3" s="17">
+        <f t="shared" si="2"/>
         <v>0.85805084745762694</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.25080000000000002</v>
       </c>
@@ -16585,25 +16633,25 @@
       <c r="C4">
         <v>0.2069</v>
       </c>
-      <c r="E4">
-        <f>(A4-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E4" s="17">
+        <f t="shared" si="0"/>
         <v>0.27543186180422297</v>
       </c>
-      <c r="F4">
-        <f>(B4-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F4" s="17">
+        <f t="shared" si="1"/>
         <v>0.56593406593406637</v>
       </c>
-      <c r="G4">
-        <f>(C4-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G4" s="17">
+        <f t="shared" si="2"/>
         <v>0.74576271186440668</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.24840000000000001</v>
       </c>
@@ -16613,25 +16661,25 @@
       <c r="C5">
         <v>0.2019</v>
       </c>
-      <c r="E5">
-        <f>(A5-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E5" s="17">
+        <f t="shared" si="0"/>
         <v>0.25239923224568156</v>
       </c>
-      <c r="F5">
-        <f>(B5-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F5" s="17">
+        <f t="shared" si="1"/>
         <v>0.40934065934065861</v>
       </c>
-      <c r="G5">
-        <f>(C5-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G5" s="17">
+        <f t="shared" si="2"/>
         <v>0.63983050847457612</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.2457</v>
       </c>
@@ -16641,25 +16689,25 @@
       <c r="C6">
         <v>0.20230000000000001</v>
       </c>
-      <c r="E6">
-        <f>(A6-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E6" s="17">
+        <f t="shared" si="0"/>
         <v>0.22648752399232258</v>
       </c>
-      <c r="F6">
-        <f>(B6-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F6" s="17">
+        <f t="shared" si="1"/>
         <v>0.31043956043955989</v>
       </c>
-      <c r="G6">
-        <f>(C6-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G6" s="17">
+        <f t="shared" si="2"/>
         <v>0.64830508474576276</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.24310000000000001</v>
       </c>
@@ -16669,25 +16717,25 @@
       <c r="C7">
         <v>0.20080000000000001</v>
       </c>
-      <c r="E7">
-        <f>(A7-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E7" s="17">
+        <f t="shared" si="0"/>
         <v>0.20153550863723629</v>
       </c>
-      <c r="F7">
-        <f>(B7-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F7" s="17">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="G7">
-        <f>(C7-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G7" s="17">
+        <f t="shared" si="2"/>
         <v>0.61652542372881358</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.2407</v>
       </c>
@@ -16697,25 +16745,25 @@
       <c r="C8">
         <v>0.19800000000000001</v>
       </c>
-      <c r="E8">
-        <f>(A8-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E8" s="17">
+        <f t="shared" si="0"/>
         <v>0.17850287907869489</v>
       </c>
-      <c r="F8">
-        <f>(B8-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F8" s="17">
+        <f t="shared" si="1"/>
         <v>0.20604395604395628</v>
       </c>
-      <c r="G8">
-        <f>(C8-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G8" s="17">
+        <f t="shared" si="2"/>
         <v>0.55720338983050866</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.23769999999999999</v>
       </c>
@@ -16725,25 +16773,25 @@
       <c r="C9">
         <v>0.19719999999999999</v>
       </c>
-      <c r="E9">
-        <f>(A9-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E9" s="17">
+        <f t="shared" si="0"/>
         <v>0.14971209213051828</v>
       </c>
-      <c r="F9">
-        <f>(B9-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F9" s="17">
+        <f t="shared" si="1"/>
         <v>0.17307692307692238</v>
       </c>
-      <c r="G9">
-        <f>(C9-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G9" s="17">
+        <f t="shared" si="2"/>
         <v>0.54025423728813526</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.23569999999999999</v>
       </c>
@@ -16753,25 +16801,25 @@
       <c r="C10">
         <v>0.19620000000000001</v>
       </c>
-      <c r="E10">
-        <f>(A10-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E10" s="17">
+        <f t="shared" si="0"/>
         <v>0.13051823416506719</v>
       </c>
-      <c r="F10">
-        <f>(B10-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F10" s="17">
+        <f t="shared" si="1"/>
         <v>0.14835164835164882</v>
       </c>
-      <c r="G10">
-        <f>(C10-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G10" s="17">
+        <f t="shared" si="2"/>
         <v>0.51906779661016977</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.23449999999999999</v>
       </c>
@@ -16781,25 +16829,25 @@
       <c r="C11">
         <v>0.1981</v>
       </c>
-      <c r="E11">
-        <f>(A11-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E11" s="17">
+        <f t="shared" si="0"/>
         <v>0.1190019193857965</v>
       </c>
-      <c r="F11">
-        <f>(B11-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F11" s="17">
+        <f t="shared" si="1"/>
         <v>0.12362637362637378</v>
       </c>
-      <c r="G11">
-        <f>(C11-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G11" s="17">
+        <f t="shared" si="2"/>
         <v>0.55932203389830504</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.23269999999999999</v>
       </c>
@@ -16809,25 +16857,25 @@
       <c r="C12">
         <v>0.19570000000000001</v>
       </c>
-      <c r="E12">
-        <f>(A12-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E12" s="17">
+        <f t="shared" si="0"/>
         <v>0.10172744721689059</v>
       </c>
-      <c r="F12">
-        <f>(B12-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F12" s="17">
+        <f t="shared" si="1"/>
         <v>0.11538461538461492</v>
       </c>
-      <c r="G12">
-        <f>(C12-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G12" s="17">
+        <f t="shared" si="2"/>
         <v>0.50847457627118664</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.23169999999999999</v>
       </c>
@@ -16837,25 +16885,25 @@
       <c r="C13">
         <v>0.1978</v>
       </c>
-      <c r="E13">
-        <f>(A13-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E13" s="17">
+        <f t="shared" si="0"/>
         <v>9.2130518234165057E-2</v>
       </c>
-      <c r="F13">
-        <f>(B13-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F13" s="17">
+        <f t="shared" si="1"/>
         <v>9.615384615384627E-2</v>
       </c>
-      <c r="G13">
-        <f>(C13-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G13" s="17">
+        <f t="shared" si="2"/>
         <v>0.55296610169491522</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.2303</v>
       </c>
@@ -16865,20 +16913,20 @@
       <c r="C14">
         <v>0.1903</v>
       </c>
-      <c r="E14">
-        <f>(A14-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E14" s="17">
+        <f t="shared" si="0"/>
         <v>7.8694817658349459E-2</v>
       </c>
-      <c r="F14">
-        <f>(B14-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F14" s="17">
+        <f t="shared" si="1"/>
         <v>8.5164835164834959E-2</v>
       </c>
-      <c r="G14">
-        <f>(C14-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G14" s="17">
+        <f t="shared" si="2"/>
         <v>0.39406779661016944</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.22950000000000001</v>
       </c>
@@ -16888,20 +16936,20 @@
       <c r="C15">
         <v>0.1885</v>
       </c>
-      <c r="E15">
-        <f>(A15-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E15" s="17">
+        <f t="shared" si="0"/>
         <v>7.1017274472169087E-2</v>
       </c>
-      <c r="F15">
-        <f>(B15-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F15" s="17">
+        <f t="shared" si="1"/>
         <v>7.4175824175823662E-2</v>
       </c>
-      <c r="G15">
-        <f>(C15-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G15" s="17">
+        <f t="shared" si="2"/>
         <v>0.35593220338983056</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.2288</v>
       </c>
@@ -16911,20 +16959,20 @@
       <c r="C16">
         <v>0.1903</v>
       </c>
-      <c r="E16">
-        <f>(A16-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E16" s="17">
+        <f t="shared" si="0"/>
         <v>6.4299424184261156E-2</v>
       </c>
-      <c r="F16">
-        <f>(B16-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F16" s="17">
+        <f t="shared" si="1"/>
         <v>6.5934065934066324E-2</v>
       </c>
-      <c r="G16">
-        <f>(C16-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G16" s="17">
+        <f t="shared" si="2"/>
         <v>0.39406779661016944</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.2283</v>
       </c>
@@ -16934,20 +16982,20 @@
       <c r="C17">
         <v>0.18920000000000001</v>
       </c>
-      <c r="E17">
-        <f>(A17-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E17" s="17">
+        <f t="shared" si="0"/>
         <v>5.9500959692898384E-2</v>
       </c>
-      <c r="F17">
-        <f>(B17-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F17" s="17">
+        <f t="shared" si="1"/>
         <v>5.769230769230746E-2</v>
       </c>
-      <c r="G17">
-        <f>(C17-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G17" s="17">
+        <f t="shared" si="2"/>
         <v>0.37076271186440696</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.22789999999999999</v>
       </c>
@@ -16957,20 +17005,20 @@
       <c r="C18">
         <v>0.1905</v>
       </c>
-      <c r="E18">
-        <f>(A18-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E18" s="17">
+        <f t="shared" si="0"/>
         <v>5.5662188099808066E-2</v>
       </c>
-      <c r="F18">
-        <f>(B18-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F18" s="17">
+        <f t="shared" si="1"/>
         <v>5.2197802197802567E-2</v>
       </c>
-      <c r="G18">
-        <f>(C18-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G18" s="17">
+        <f t="shared" si="2"/>
         <v>0.39830508474576276</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.22750000000000001</v>
       </c>
@@ -16980,20 +17028,20 @@
       <c r="C19">
         <v>0.19</v>
       </c>
-      <c r="E19">
-        <f>(A19-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E19" s="17">
+        <f t="shared" si="0"/>
         <v>5.1823416506718012E-2</v>
       </c>
-      <c r="F19">
-        <f>(B19-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F19" s="17">
+        <f t="shared" si="1"/>
         <v>4.9450549450548595E-2</v>
       </c>
-      <c r="G19">
-        <f>(C19-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G19" s="17">
+        <f t="shared" si="2"/>
         <v>0.38771186440677974</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.22720000000000001</v>
       </c>
@@ -17003,20 +17051,20 @@
       <c r="C20">
         <v>0.18820000000000001</v>
       </c>
-      <c r="E20">
-        <f>(A20-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E20" s="17">
+        <f t="shared" si="0"/>
         <v>4.8944337811900399E-2</v>
       </c>
-      <c r="F20">
-        <f>(B20-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F20" s="17">
+        <f t="shared" si="1"/>
         <v>4.3956043956043703E-2</v>
       </c>
-      <c r="G20">
-        <f>(C20-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G20" s="17">
+        <f t="shared" si="2"/>
         <v>0.34957627118644086</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.22700000000000001</v>
       </c>
@@ -17026,20 +17074,20 @@
       <c r="C21">
         <v>0.18959999999999999</v>
       </c>
-      <c r="E21">
-        <f>(A21-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E21" s="17">
+        <f t="shared" si="0"/>
         <v>4.702495201535524E-2</v>
       </c>
-      <c r="F21">
-        <f>(B21-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F21" s="17">
+        <f t="shared" si="1"/>
         <v>4.1208791208791257E-2</v>
       </c>
-      <c r="G21">
-        <f>(C21-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G21" s="17">
+        <f t="shared" si="2"/>
         <v>0.37923728813559304</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.2268</v>
       </c>
@@ -17049,20 +17097,20 @@
       <c r="C22">
         <v>0.18559999999999999</v>
       </c>
-      <c r="E22">
-        <f>(A22-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E22" s="17">
+        <f t="shared" si="0"/>
         <v>4.5105566218810081E-2</v>
       </c>
-      <c r="F22">
-        <f>(B22-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F22" s="17">
+        <f t="shared" si="1"/>
         <v>4.9450549450548595E-2</v>
       </c>
-      <c r="G22">
-        <f>(C22-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G22" s="17">
+        <f t="shared" si="2"/>
         <v>0.29449152542372858</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.2266</v>
       </c>
@@ -17072,20 +17120,20 @@
       <c r="C23">
         <v>0.18590000000000001</v>
       </c>
-      <c r="E23">
-        <f>(A23-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E23" s="17">
+        <f t="shared" si="0"/>
         <v>4.3186180422264922E-2</v>
       </c>
-      <c r="F23">
-        <f>(B23-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F23" s="17">
+        <f t="shared" si="1"/>
         <v>4.3956043956043703E-2</v>
       </c>
-      <c r="G23">
-        <f>(C23-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G23" s="17">
+        <f t="shared" si="2"/>
         <v>0.3008474576271189</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.22639999999999999</v>
       </c>
@@ -17095,20 +17143,20 @@
       <c r="C24">
         <v>0.1867</v>
       </c>
-      <c r="E24">
-        <f>(A24-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E24" s="17">
+        <f t="shared" si="0"/>
         <v>4.1266794625719756E-2</v>
       </c>
-      <c r="F24">
-        <f>(B24-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F24" s="17">
+        <f t="shared" si="1"/>
         <v>4.1208791208791257E-2</v>
       </c>
-      <c r="G24">
-        <f>(C24-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G24" s="17">
+        <f t="shared" si="2"/>
         <v>0.31779661016949168</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.22620000000000001</v>
       </c>
@@ -17118,20 +17166,20 @@
       <c r="C25">
         <v>0.18429999999999999</v>
       </c>
-      <c r="E25">
-        <f>(A25-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E25" s="17">
+        <f t="shared" si="0"/>
         <v>3.9347408829174861E-2</v>
       </c>
-      <c r="F25">
-        <f>(B25-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F25" s="17">
+        <f t="shared" si="1"/>
         <v>3.8461538461538811E-2</v>
       </c>
-      <c r="G25">
-        <f>(C25-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G25" s="17">
+        <f t="shared" si="2"/>
         <v>0.26694915254237278</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.22620000000000001</v>
       </c>
@@ -17141,20 +17189,20 @@
       <c r="C26">
         <v>0.18410000000000001</v>
       </c>
-      <c r="E26">
-        <f>(A26-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E26" s="17">
+        <f t="shared" si="0"/>
         <v>3.9347408829174861E-2</v>
       </c>
-      <c r="F26">
-        <f>(B26-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F26" s="17">
+        <f t="shared" si="1"/>
         <v>3.5714285714284845E-2</v>
       </c>
-      <c r="G26">
-        <f>(C26-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G26" s="17">
+        <f t="shared" si="2"/>
         <v>0.26271186440678002</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.22589999999999999</v>
       </c>
@@ -17164,20 +17212,20 @@
       <c r="C27">
         <v>0.1855</v>
       </c>
-      <c r="E27">
-        <f>(A27-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E27" s="17">
+        <f t="shared" si="0"/>
         <v>3.6468330134356991E-2</v>
       </c>
-      <c r="F27">
-        <f>(B27-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F27" s="17">
+        <f t="shared" si="1"/>
         <v>3.2967032967032399E-2</v>
       </c>
-      <c r="G27">
-        <f>(C27-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G27" s="17">
+        <f t="shared" si="2"/>
         <v>0.2923728813559322</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.22570000000000001</v>
       </c>
@@ -17187,20 +17235,20 @@
       <c r="C28">
         <v>0.1845</v>
       </c>
-      <c r="E28">
-        <f>(A28-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E28" s="17">
+        <f t="shared" si="0"/>
         <v>3.4548944337812096E-2</v>
       </c>
-      <c r="F28">
-        <f>(B28-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F28" s="17">
+        <f t="shared" si="1"/>
         <v>3.0219780219779953E-2</v>
       </c>
-      <c r="G28">
-        <f>(C28-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G28" s="17">
+        <f t="shared" si="2"/>
         <v>0.2711864406779661</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.22559999999999999</v>
       </c>
@@ -17210,20 +17258,20 @@
       <c r="C29">
         <v>0.18160000000000001</v>
       </c>
-      <c r="E29">
-        <f>(A29-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E29" s="17">
+        <f t="shared" si="0"/>
         <v>3.3589251439539385E-2</v>
       </c>
-      <c r="F29">
-        <f>(B29-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F29" s="17">
+        <f t="shared" si="1"/>
         <v>2.7472527472527507E-2</v>
       </c>
-      <c r="G29">
-        <f>(C29-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G29" s="17">
+        <f t="shared" si="2"/>
         <v>0.20974576271186474</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.22539999999999999</v>
       </c>
@@ -17233,20 +17281,20 @@
       <c r="C30">
         <v>0.1812</v>
       </c>
-      <c r="E30">
-        <f>(A30-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E30" s="17">
+        <f t="shared" si="0"/>
         <v>3.1669865642994219E-2</v>
       </c>
-      <c r="F30">
-        <f>(B30-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F30" s="17">
+        <f t="shared" si="1"/>
         <v>2.4725274725275061E-2</v>
       </c>
-      <c r="G30">
-        <f>(C30-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G30" s="17">
+        <f t="shared" si="2"/>
         <v>0.20127118644067807</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.2253</v>
       </c>
@@ -17256,20 +17304,20 @@
       <c r="C31">
         <v>0.18090000000000001</v>
       </c>
-      <c r="E31">
-        <f>(A31-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E31" s="17">
+        <f t="shared" si="0"/>
         <v>3.0710172744721775E-2</v>
       </c>
-      <c r="F31">
-        <f>(B31-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F31" s="17">
+        <f t="shared" si="1"/>
         <v>2.4725274725275061E-2</v>
       </c>
-      <c r="G31">
-        <f>(C31-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G31" s="17">
+        <f t="shared" si="2"/>
         <v>0.19491525423728834</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.22520000000000001</v>
       </c>
@@ -17279,20 +17327,20 @@
       <c r="C32">
         <v>0.18279999999999999</v>
       </c>
-      <c r="E32">
-        <f>(A32-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E32" s="17">
+        <f t="shared" si="0"/>
         <v>2.9750479846449327E-2</v>
       </c>
-      <c r="F32">
-        <f>(B32-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F32" s="17">
+        <f t="shared" si="1"/>
         <v>3.2967032967032399E-2</v>
       </c>
-      <c r="G32">
-        <f>(C32-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G32" s="17">
+        <f t="shared" si="2"/>
         <v>0.2351694915254236</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.22509999999999999</v>
       </c>
@@ -17302,20 +17350,20 @@
       <c r="C33">
         <v>0.1822</v>
       </c>
-      <c r="E33">
-        <f>(A33-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E33" s="17">
+        <f t="shared" si="0"/>
         <v>2.8790786948176612E-2</v>
       </c>
-      <c r="F33">
-        <f>(B33-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F33" s="17">
+        <f t="shared" si="1"/>
         <v>3.0219780219779953E-2</v>
       </c>
-      <c r="G33">
-        <f>(C33-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G33" s="17">
+        <f t="shared" si="2"/>
         <v>0.22245762711864417</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.22500000000000001</v>
       </c>
@@ -17325,20 +17373,20 @@
       <c r="C34">
         <v>0.18240000000000001</v>
       </c>
-      <c r="E34">
-        <f>(A34-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E34" s="17">
+        <f t="shared" ref="E34:E65" si="3">(A34-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
         <v>2.7831094049904165E-2</v>
       </c>
-      <c r="F34">
-        <f>(B34-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F34" s="17">
+        <f t="shared" ref="F34:F65" si="4">(B34-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
         <v>2.7472527472527507E-2</v>
       </c>
-      <c r="G34">
-        <f>(C34-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G34" s="17">
+        <f t="shared" ref="G34:G65" si="5">(C34-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
         <v>0.22669491525423752</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.22500000000000001</v>
       </c>
@@ -17348,20 +17396,20 @@
       <c r="C35">
         <v>0.1794</v>
       </c>
-      <c r="E35">
-        <f>(A35-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E35" s="17">
+        <f t="shared" si="3"/>
         <v>2.7831094049904165E-2</v>
       </c>
-      <c r="F35">
-        <f>(B35-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F35" s="17">
+        <f t="shared" si="4"/>
         <v>2.4725274725275061E-2</v>
       </c>
-      <c r="G35">
-        <f>(C35-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G35" s="17">
+        <f t="shared" si="5"/>
         <v>0.16313559322033919</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.22500000000000001</v>
       </c>
@@ -17371,20 +17419,20 @@
       <c r="C36">
         <v>0.18010000000000001</v>
       </c>
-      <c r="E36">
-        <f>(A36-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E36" s="17">
+        <f t="shared" si="3"/>
         <v>2.7831094049904165E-2</v>
       </c>
-      <c r="F36">
-        <f>(B36-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F36" s="17">
+        <f t="shared" si="4"/>
         <v>2.4725274725275061E-2</v>
       </c>
-      <c r="G36">
-        <f>(C36-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G36" s="17">
+        <f t="shared" si="5"/>
         <v>0.17796610169491558</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.22520000000000001</v>
       </c>
@@ -17394,20 +17442,20 @@
       <c r="C37">
         <v>0.18240000000000001</v>
       </c>
-      <c r="E37">
-        <f>(A37-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E37" s="17">
+        <f t="shared" si="3"/>
         <v>2.9750479846449327E-2</v>
       </c>
-      <c r="F37">
-        <f>(B37-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F37" s="17">
+        <f t="shared" si="4"/>
         <v>2.1978021978021088E-2</v>
       </c>
-      <c r="G37">
-        <f>(C37-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G37" s="17">
+        <f t="shared" si="5"/>
         <v>0.22669491525423752</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.22509999999999999</v>
       </c>
@@ -17417,20 +17465,20 @@
       <c r="C38">
         <v>0.17860000000000001</v>
       </c>
-      <c r="E38">
-        <f>(A38-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E38" s="17">
+        <f t="shared" si="3"/>
         <v>2.8790786948176612E-2</v>
       </c>
-      <c r="F38">
-        <f>(B38-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F38" s="17">
+        <f t="shared" si="4"/>
         <v>1.9230769230768646E-2</v>
       </c>
-      <c r="G38">
-        <f>(C38-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G38" s="17">
+        <f t="shared" si="5"/>
         <v>0.14618644067796641</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.22489999999999999</v>
       </c>
@@ -17440,20 +17488,20 @@
       <c r="C39">
         <v>0.17960000000000001</v>
       </c>
-      <c r="E39">
-        <f>(A39-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E39" s="17">
+        <f t="shared" si="3"/>
         <v>2.6871401151631454E-2</v>
       </c>
-      <c r="F39">
-        <f>(B39-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F39" s="17">
+        <f t="shared" si="4"/>
         <v>1.9230769230768646E-2</v>
       </c>
-      <c r="G39">
-        <f>(C39-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G39" s="17">
+        <f t="shared" si="5"/>
         <v>0.16737288135593251</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.22459999999999999</v>
       </c>
@@ -17463,20 +17511,20 @@
       <c r="C40">
         <v>0.18049999999999999</v>
       </c>
-      <c r="E40">
-        <f>(A40-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E40" s="17">
+        <f t="shared" si="3"/>
         <v>2.3992322456813844E-2</v>
       </c>
-      <c r="F40">
-        <f>(B40-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F40" s="17">
+        <f t="shared" si="4"/>
         <v>1.6483516483516199E-2</v>
       </c>
-      <c r="G40">
-        <f>(C40-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G40" s="17">
+        <f t="shared" si="5"/>
         <v>0.18644067796610167</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.22450000000000001</v>
       </c>
@@ -17486,20 +17534,20 @@
       <c r="C41">
         <v>0.18010000000000001</v>
       </c>
-      <c r="E41">
-        <f>(A41-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E41" s="17">
+        <f t="shared" si="3"/>
         <v>2.3032629558541396E-2</v>
       </c>
-      <c r="F41">
-        <f>(B41-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F41" s="17">
+        <f t="shared" si="4"/>
         <v>1.6483516483516199E-2</v>
       </c>
-      <c r="G41">
-        <f>(C41-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G41" s="17">
+        <f t="shared" si="5"/>
         <v>0.17796610169491558</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.2243</v>
       </c>
@@ -17509,20 +17557,20 @@
       <c r="C42">
         <v>0.18090000000000001</v>
       </c>
-      <c r="E42">
-        <f>(A42-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E42" s="17">
+        <f t="shared" si="3"/>
         <v>2.1113243761996237E-2</v>
       </c>
-      <c r="F42">
-        <f>(B42-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F42" s="17">
+        <f t="shared" si="4"/>
         <v>2.7472527472527507E-2</v>
       </c>
-      <c r="G42">
-        <f>(C42-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G42" s="17">
+        <f t="shared" si="5"/>
         <v>0.19491525423728834</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.22420000000000001</v>
       </c>
@@ -17532,20 +17580,20 @@
       <c r="C43">
         <v>0.17780000000000001</v>
       </c>
-      <c r="E43">
-        <f>(A43-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E43" s="17">
+        <f t="shared" si="3"/>
         <v>2.015355086372379E-2</v>
       </c>
-      <c r="F43">
-        <f>(B43-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F43" s="17">
+        <f t="shared" si="4"/>
         <v>2.4725274725275061E-2</v>
       </c>
-      <c r="G43">
-        <f>(C43-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G43" s="17">
+        <f t="shared" si="5"/>
         <v>0.12923728813559363</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.22420000000000001</v>
       </c>
@@ -17555,20 +17603,20 @@
       <c r="C44">
         <v>0.1804</v>
       </c>
-      <c r="E44">
-        <f>(A44-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E44" s="17">
+        <f t="shared" si="3"/>
         <v>2.015355086372379E-2</v>
       </c>
-      <c r="F44">
-        <f>(B44-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F44" s="17">
+        <f t="shared" si="4"/>
         <v>2.1978021978021088E-2</v>
       </c>
-      <c r="G44">
-        <f>(C44-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G44" s="17">
+        <f t="shared" si="5"/>
         <v>0.18432203389830529</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.22409999999999999</v>
       </c>
@@ -17578,20 +17626,20 @@
       <c r="C45">
         <v>0.17780000000000001</v>
       </c>
-      <c r="E45">
-        <f>(A45-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E45" s="17">
+        <f t="shared" si="3"/>
         <v>1.9193857965451075E-2</v>
       </c>
-      <c r="F45">
-        <f>(B45-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F45" s="17">
+        <f t="shared" si="4"/>
         <v>1.9230769230768646E-2</v>
       </c>
-      <c r="G45">
-        <f>(C45-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G45" s="17">
+        <f t="shared" si="5"/>
         <v>0.12923728813559363</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.224</v>
       </c>
@@ -17601,20 +17649,20 @@
       <c r="C46">
         <v>0.1797</v>
       </c>
-      <c r="E46">
-        <f>(A46-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E46" s="17">
+        <f t="shared" si="3"/>
         <v>1.8234165067178627E-2</v>
       </c>
-      <c r="F46">
-        <f>(B46-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F46" s="17">
+        <f t="shared" si="4"/>
         <v>1.9230769230768646E-2</v>
       </c>
-      <c r="G46">
-        <f>(C46-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G46" s="17">
+        <f t="shared" si="5"/>
         <v>0.16949152542372889</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.22389999999999999</v>
       </c>
@@ -17624,20 +17672,20 @@
       <c r="C47">
         <v>0.1787</v>
       </c>
-      <c r="E47">
-        <f>(A47-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E47" s="17">
+        <f t="shared" si="3"/>
         <v>1.7274472168905913E-2</v>
       </c>
-      <c r="F47">
-        <f>(B47-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F47" s="17">
+        <f t="shared" si="4"/>
         <v>1.6483516483516199E-2</v>
       </c>
-      <c r="G47">
-        <f>(C47-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G47" s="17">
+        <f t="shared" si="5"/>
         <v>0.14830508474576279</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.22389999999999999</v>
       </c>
@@ -17647,20 +17695,20 @@
       <c r="C48">
         <v>0.17929999999999999</v>
       </c>
-      <c r="E48">
-        <f>(A48-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E48" s="17">
+        <f t="shared" si="3"/>
         <v>1.7274472168905913E-2</v>
       </c>
-      <c r="F48">
-        <f>(B48-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F48" s="17">
+        <f t="shared" si="4"/>
         <v>1.6483516483516199E-2</v>
       </c>
-      <c r="G48">
-        <f>(C48-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G48" s="17">
+        <f t="shared" si="5"/>
         <v>0.16101694915254222</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.2238</v>
       </c>
@@ -17670,20 +17718,20 @@
       <c r="C49">
         <v>0.17949999999999999</v>
       </c>
-      <c r="E49">
-        <f>(A49-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E49" s="17">
+        <f t="shared" si="3"/>
         <v>1.6314779270633468E-2</v>
       </c>
-      <c r="F49">
-        <f>(B49-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F49" s="17">
+        <f t="shared" si="4"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G49">
-        <f>(C49-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G49" s="17">
+        <f t="shared" si="5"/>
         <v>0.16525423728813554</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.2238</v>
       </c>
@@ -17693,20 +17741,20 @@
       <c r="C50">
         <v>0.17879999999999999</v>
       </c>
-      <c r="E50">
-        <f>(A50-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E50" s="17">
+        <f t="shared" si="3"/>
         <v>1.6314779270633468E-2</v>
       </c>
-      <c r="F50">
-        <f>(B50-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F50" s="17">
+        <f t="shared" si="4"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G50">
-        <f>(C50-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G50" s="17">
+        <f t="shared" si="5"/>
         <v>0.15042372881355917</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.22370000000000001</v>
       </c>
@@ -17716,20 +17764,20 @@
       <c r="C51">
         <v>0.17680000000000001</v>
       </c>
-      <c r="E51">
-        <f>(A51-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E51" s="17">
+        <f t="shared" si="3"/>
         <v>1.5355086372361019E-2</v>
       </c>
-      <c r="F51">
-        <f>(B51-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F51" s="17">
+        <f t="shared" si="4"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G51">
-        <f>(C51-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G51" s="17">
+        <f t="shared" si="5"/>
         <v>0.10805084745762752</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.22370000000000001</v>
       </c>
@@ -17739,20 +17787,20 @@
       <c r="C52">
         <v>0.17829999999999999</v>
       </c>
-      <c r="E52">
-        <f>(A52-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E52" s="17">
+        <f t="shared" si="3"/>
         <v>1.5355086372361019E-2</v>
       </c>
-      <c r="F52">
-        <f>(B52-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F52" s="17">
+        <f t="shared" si="4"/>
         <v>2.1978021978021088E-2</v>
       </c>
-      <c r="G52">
-        <f>(C52-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G52" s="17">
+        <f t="shared" si="5"/>
         <v>0.13983050847457609</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.22359999999999999</v>
       </c>
@@ -17762,20 +17810,20 @@
       <c r="C53">
         <v>0.17849999999999999</v>
       </c>
-      <c r="E53">
-        <f>(A53-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E53" s="17">
+        <f t="shared" si="3"/>
         <v>1.4395393474088306E-2</v>
       </c>
-      <c r="F53">
-        <f>(B53-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F53" s="17">
+        <f t="shared" si="4"/>
         <v>2.1978021978021088E-2</v>
       </c>
-      <c r="G53">
-        <f>(C53-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G53" s="17">
+        <f t="shared" si="5"/>
         <v>0.14406779661016944</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.22359999999999999</v>
       </c>
@@ -17785,20 +17833,20 @@
       <c r="C54">
         <v>0.1777</v>
       </c>
-      <c r="E54">
-        <f>(A54-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E54" s="17">
+        <f t="shared" si="3"/>
         <v>1.4395393474088306E-2</v>
       </c>
-      <c r="F54">
-        <f>(B54-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F54" s="17">
+        <f t="shared" si="4"/>
         <v>1.9230769230768646E-2</v>
       </c>
-      <c r="G54">
-        <f>(C54-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G54" s="17">
+        <f t="shared" si="5"/>
         <v>0.12711864406779666</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.22359999999999999</v>
       </c>
@@ -17808,20 +17856,20 @@
       <c r="C55">
         <v>0.17780000000000001</v>
       </c>
-      <c r="E55">
-        <f>(A55-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E55" s="17">
+        <f t="shared" si="3"/>
         <v>1.4395393474088306E-2</v>
       </c>
-      <c r="F55">
-        <f>(B55-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F55" s="17">
+        <f t="shared" si="4"/>
         <v>1.6483516483516199E-2</v>
       </c>
-      <c r="G55">
-        <f>(C55-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G55" s="17">
+        <f t="shared" si="5"/>
         <v>0.12923728813559363</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.2235</v>
       </c>
@@ -17831,20 +17879,20 @@
       <c r="C56">
         <v>0.1792</v>
       </c>
-      <c r="E56">
-        <f>(A56-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E56" s="17">
+        <f t="shared" si="3"/>
         <v>1.3435700575815859E-2</v>
       </c>
-      <c r="F56">
-        <f>(B56-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F56" s="17">
+        <f t="shared" si="4"/>
         <v>1.6483516483516199E-2</v>
       </c>
-      <c r="G56">
-        <f>(C56-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G56" s="17">
+        <f t="shared" si="5"/>
         <v>0.15889830508474584</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.2235</v>
       </c>
@@ -17854,20 +17902,20 @@
       <c r="C57">
         <v>0.1767</v>
       </c>
-      <c r="E57">
-        <f>(A57-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E57" s="17">
+        <f t="shared" si="3"/>
         <v>1.3435700575815859E-2</v>
       </c>
-      <c r="F57">
-        <f>(B57-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F57" s="17">
+        <f t="shared" si="4"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G57">
-        <f>(C57-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G57" s="17">
+        <f t="shared" si="5"/>
         <v>0.10593220338983056</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.2235</v>
       </c>
@@ -17877,20 +17925,20 @@
       <c r="C58">
         <v>0.17780000000000001</v>
       </c>
-      <c r="E58">
-        <f>(A58-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E58" s="17">
+        <f t="shared" si="3"/>
         <v>1.3435700575815859E-2</v>
       </c>
-      <c r="F58">
-        <f>(B58-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F58" s="17">
+        <f t="shared" si="4"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G58">
-        <f>(C58-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G58" s="17">
+        <f t="shared" si="5"/>
         <v>0.12923728813559363</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.22339999999999999</v>
       </c>
@@ -17900,20 +17948,20 @@
       <c r="C59">
         <v>0.1764</v>
       </c>
-      <c r="E59">
-        <f>(A59-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E59" s="17">
+        <f t="shared" si="3"/>
         <v>1.2476007677543146E-2</v>
       </c>
-      <c r="F59">
-        <f>(B59-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F59" s="17">
+        <f t="shared" si="4"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G59">
-        <f>(C59-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G59" s="17">
+        <f t="shared" si="5"/>
         <v>9.9576271186440843E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.22339999999999999</v>
       </c>
@@ -17923,20 +17971,20 @@
       <c r="C60">
         <v>0.1774</v>
       </c>
-      <c r="E60">
-        <f>(A60-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E60" s="17">
+        <f t="shared" si="3"/>
         <v>1.2476007677543146E-2</v>
       </c>
-      <c r="F60">
-        <f>(B60-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F60" s="17">
+        <f t="shared" si="4"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G60">
-        <f>(C60-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G60" s="17">
+        <f t="shared" si="5"/>
         <v>0.12076271186440696</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.22339999999999999</v>
       </c>
@@ -17946,20 +17994,20 @@
       <c r="C61">
         <v>0.17660000000000001</v>
       </c>
-      <c r="E61">
-        <f>(A61-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E61" s="17">
+        <f t="shared" si="3"/>
         <v>1.2476007677543146E-2</v>
       </c>
-      <c r="F61">
-        <f>(B61-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F61" s="17">
+        <f t="shared" si="4"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G61">
-        <f>(C61-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G61" s="17">
+        <f t="shared" si="5"/>
         <v>0.10381355932203418</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.2233</v>
       </c>
@@ -17969,20 +18017,20 @@
       <c r="C62">
         <v>0.17799999999999999</v>
       </c>
-      <c r="E62">
-        <f>(A62-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E62" s="17">
+        <f t="shared" si="3"/>
         <v>1.1516314779270698E-2</v>
       </c>
-      <c r="F62">
-        <f>(B62-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F62" s="17">
+        <f t="shared" si="4"/>
         <v>1.9230769230768646E-2</v>
       </c>
-      <c r="G62">
-        <f>(C62-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G62" s="17">
+        <f t="shared" si="5"/>
         <v>0.13347457627118639</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.2233</v>
       </c>
@@ -17992,20 +18040,20 @@
       <c r="C63">
         <v>0.17680000000000001</v>
       </c>
-      <c r="E63">
-        <f>(A63-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E63" s="17">
+        <f t="shared" si="3"/>
         <v>1.1516314779270698E-2</v>
       </c>
-      <c r="F63">
-        <f>(B63-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F63" s="17">
+        <f t="shared" si="4"/>
         <v>1.9230769230768646E-2</v>
       </c>
-      <c r="G63">
-        <f>(C63-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G63" s="17">
+        <f t="shared" si="5"/>
         <v>0.10805084745762752</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.2233</v>
       </c>
@@ -18015,20 +18063,20 @@
       <c r="C64">
         <v>0.17649999999999999</v>
       </c>
-      <c r="E64">
-        <f>(A64-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E64" s="17">
+        <f t="shared" si="3"/>
         <v>1.1516314779270698E-2</v>
       </c>
-      <c r="F64">
-        <f>(B64-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F64" s="17">
+        <f t="shared" si="4"/>
         <v>1.6483516483516199E-2</v>
       </c>
-      <c r="G64">
-        <f>(C64-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G64" s="17">
+        <f t="shared" si="5"/>
         <v>0.10169491525423721</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.2233</v>
       </c>
@@ -18038,20 +18086,20 @@
       <c r="C65">
         <v>0.17699999999999999</v>
       </c>
-      <c r="E65">
-        <f>(A65-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E65" s="17">
+        <f t="shared" si="3"/>
         <v>1.1516314779270698E-2</v>
       </c>
-      <c r="F65">
-        <f>(B65-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F65" s="17">
+        <f t="shared" si="4"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G65">
-        <f>(C65-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G65" s="17">
+        <f t="shared" si="5"/>
         <v>0.11228813559322028</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.22320000000000001</v>
       </c>
@@ -18061,20 +18109,20 @@
       <c r="C66">
         <v>0.1769</v>
       </c>
-      <c r="E66">
-        <f>(A66-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E66" s="17">
+        <f t="shared" ref="E66:E97" si="6">(A66-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
         <v>1.055662188099825E-2</v>
       </c>
-      <c r="F66">
-        <f>(B66-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F66" s="17">
+        <f t="shared" ref="F66:F97" si="7">(B66-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G66">
-        <f>(C66-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G66" s="17">
+        <f t="shared" ref="G66:G97" si="8">(C66-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
         <v>0.11016949152542389</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.22320000000000001</v>
       </c>
@@ -18084,20 +18132,20 @@
       <c r="C67">
         <v>0.17510000000000001</v>
       </c>
-      <c r="E67">
-        <f>(A67-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E67" s="17">
+        <f t="shared" si="6"/>
         <v>1.055662188099825E-2</v>
       </c>
-      <c r="F67">
-        <f>(B67-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F67" s="17">
+        <f t="shared" si="7"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G67">
-        <f>(C67-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G67" s="17">
+        <f t="shared" si="8"/>
         <v>7.2033898305085012E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.22320000000000001</v>
       </c>
@@ -18107,20 +18155,20 @@
       <c r="C68">
         <v>0.1744</v>
       </c>
-      <c r="E68">
-        <f>(A68-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E68" s="17">
+        <f t="shared" si="6"/>
         <v>1.055662188099825E-2</v>
       </c>
-      <c r="F68">
-        <f>(B68-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F68" s="17">
+        <f t="shared" si="7"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G68">
-        <f>(C68-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G68" s="17">
+        <f t="shared" si="8"/>
         <v>5.7203389830508621E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.22320000000000001</v>
       </c>
@@ -18130,20 +18178,20 @@
       <c r="C69">
         <v>0.17610000000000001</v>
       </c>
-      <c r="E69">
-        <f>(A69-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E69" s="17">
+        <f t="shared" si="6"/>
         <v>1.055662188099825E-2</v>
       </c>
-      <c r="F69">
-        <f>(B69-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F69" s="17">
+        <f t="shared" si="7"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G69">
-        <f>(C69-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G69" s="17">
+        <f t="shared" si="8"/>
         <v>9.3220338983051126E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.22320000000000001</v>
       </c>
@@ -18153,20 +18201,20 @@
       <c r="C70">
         <v>0.17649999999999999</v>
       </c>
-      <c r="E70">
-        <f>(A70-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E70" s="17">
+        <f t="shared" si="6"/>
         <v>1.055662188099825E-2</v>
       </c>
-      <c r="F70">
-        <f>(B70-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F70" s="17">
+        <f t="shared" si="7"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G70">
-        <f>(C70-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G70" s="17">
+        <f t="shared" si="8"/>
         <v>0.10169491525423721</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.22309999999999999</v>
       </c>
@@ -18176,20 +18224,20 @@
       <c r="C71">
         <v>0.17710000000000001</v>
       </c>
-      <c r="E71">
-        <f>(A71-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E71" s="17">
+        <f t="shared" si="6"/>
         <v>9.5969289827255375E-3</v>
       </c>
-      <c r="F71">
-        <f>(B71-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F71" s="17">
+        <f t="shared" si="7"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G71">
-        <f>(C71-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G71" s="17">
+        <f t="shared" si="8"/>
         <v>0.11440677966101724</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.22309999999999999</v>
       </c>
@@ -18199,20 +18247,20 @@
       <c r="C72">
         <v>0.17660000000000001</v>
       </c>
-      <c r="E72">
-        <f>(A72-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E72" s="17">
+        <f t="shared" si="6"/>
         <v>9.5969289827255375E-3</v>
       </c>
-      <c r="F72">
-        <f>(B72-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F72" s="17">
+        <f t="shared" si="7"/>
         <v>1.9230769230768646E-2</v>
       </c>
-      <c r="G72">
-        <f>(C72-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G72" s="17">
+        <f t="shared" si="8"/>
         <v>0.10381355932203418</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.22309999999999999</v>
       </c>
@@ -18222,20 +18270,20 @@
       <c r="C73">
         <v>0.17660000000000001</v>
       </c>
-      <c r="E73">
-        <f>(A73-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E73" s="17">
+        <f t="shared" si="6"/>
         <v>9.5969289827255375E-3</v>
       </c>
-      <c r="F73">
-        <f>(B73-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F73" s="17">
+        <f t="shared" si="7"/>
         <v>1.6483516483516199E-2</v>
       </c>
-      <c r="G73">
-        <f>(C73-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G73" s="17">
+        <f t="shared" si="8"/>
         <v>0.10381355932203418</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.22309999999999999</v>
       </c>
@@ -18245,20 +18293,20 @@
       <c r="C74">
         <v>0.17699999999999999</v>
       </c>
-      <c r="E74">
-        <f>(A74-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E74" s="17">
+        <f t="shared" si="6"/>
         <v>9.5969289827255375E-3</v>
       </c>
-      <c r="F74">
-        <f>(B74-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F74" s="17">
+        <f t="shared" si="7"/>
         <v>1.6483516483516199E-2</v>
       </c>
-      <c r="G74">
-        <f>(C74-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G74" s="17">
+        <f t="shared" si="8"/>
         <v>0.11228813559322028</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.223</v>
       </c>
@@ -18268,20 +18316,20 @@
       <c r="C75">
         <v>0.17549999999999999</v>
       </c>
-      <c r="E75">
-        <f>(A75-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E75" s="17">
+        <f t="shared" si="6"/>
         <v>8.6372360844530899E-3</v>
       </c>
-      <c r="F75">
-        <f>(B75-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F75" s="17">
+        <f t="shared" si="7"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G75">
-        <f>(C75-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G75" s="17">
+        <f t="shared" si="8"/>
         <v>8.0508474576271111E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.223</v>
       </c>
@@ -18291,20 +18339,20 @@
       <c r="C76">
         <v>0.17780000000000001</v>
       </c>
-      <c r="E76">
-        <f>(A76-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E76" s="17">
+        <f t="shared" si="6"/>
         <v>8.6372360844530899E-3</v>
       </c>
-      <c r="F76">
-        <f>(B76-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F76" s="17">
+        <f t="shared" si="7"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G76">
-        <f>(C76-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G76" s="17">
+        <f t="shared" si="8"/>
         <v>0.12923728813559363</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.223</v>
       </c>
@@ -18314,20 +18362,20 @@
       <c r="C77">
         <v>0.17630000000000001</v>
       </c>
-      <c r="E77">
-        <f>(A77-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E77" s="17">
+        <f t="shared" si="6"/>
         <v>8.6372360844530899E-3</v>
       </c>
-      <c r="F77">
-        <f>(B77-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F77" s="17">
+        <f t="shared" si="7"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G77">
-        <f>(C77-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G77" s="17">
+        <f t="shared" si="8"/>
         <v>9.745762711864446E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.223</v>
       </c>
@@ -18337,20 +18385,20 @@
       <c r="C78">
         <v>0.17710000000000001</v>
       </c>
-      <c r="E78">
-        <f>(A78-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E78" s="17">
+        <f t="shared" si="6"/>
         <v>8.6372360844530899E-3</v>
       </c>
-      <c r="F78">
-        <f>(B78-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F78" s="17">
+        <f t="shared" si="7"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G78">
-        <f>(C78-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G78" s="17">
+        <f t="shared" si="8"/>
         <v>0.11440677966101724</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.223</v>
       </c>
@@ -18360,20 +18408,20 @@
       <c r="C79">
         <v>0.17460000000000001</v>
       </c>
-      <c r="E79">
-        <f>(A79-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E79" s="17">
+        <f t="shared" si="6"/>
         <v>8.6372360844530899E-3</v>
       </c>
-      <c r="F79">
-        <f>(B79-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F79" s="17">
+        <f t="shared" si="7"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G79">
-        <f>(C79-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G79" s="17">
+        <f t="shared" si="8"/>
         <v>6.1440677966101961E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.22289999999999999</v>
       </c>
@@ -18383,20 +18431,20 @@
       <c r="C80">
         <v>0.17699999999999999</v>
       </c>
-      <c r="E80">
-        <f>(A80-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E80" s="17">
+        <f t="shared" si="6"/>
         <v>7.6775431861803769E-3</v>
       </c>
-      <c r="F80">
-        <f>(B80-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F80" s="17">
+        <f t="shared" si="7"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G80">
-        <f>(C80-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G80" s="17">
+        <f t="shared" si="8"/>
         <v>0.11228813559322028</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.22289999999999999</v>
       </c>
@@ -18406,20 +18454,20 @@
       <c r="C81">
         <v>0.17599999999999999</v>
       </c>
-      <c r="E81">
-        <f>(A81-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E81" s="17">
+        <f t="shared" si="6"/>
         <v>7.6775431861803769E-3</v>
       </c>
-      <c r="F81">
-        <f>(B81-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F81" s="17">
+        <f t="shared" si="7"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G81">
-        <f>(C81-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G81" s="17">
+        <f t="shared" si="8"/>
         <v>9.1101694915254161E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.22289999999999999</v>
       </c>
@@ -18429,20 +18477,20 @@
       <c r="C82">
         <v>0.17580000000000001</v>
       </c>
-      <c r="E82">
-        <f>(A82-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E82" s="17">
+        <f t="shared" si="6"/>
         <v>7.6775431861803769E-3</v>
       </c>
-      <c r="F82">
-        <f>(B82-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F82" s="17">
+        <f t="shared" si="7"/>
         <v>1.6483516483516199E-2</v>
       </c>
-      <c r="G82">
-        <f>(C82-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G82" s="17">
+        <f t="shared" si="8"/>
         <v>8.686440677966141E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.22289999999999999</v>
       </c>
@@ -18452,20 +18500,20 @@
       <c r="C83">
         <v>0.17499999999999999</v>
       </c>
-      <c r="E83">
-        <f>(A83-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E83" s="17">
+        <f t="shared" si="6"/>
         <v>7.6775431861803769E-3</v>
       </c>
-      <c r="F83">
-        <f>(B83-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F83" s="17">
+        <f t="shared" si="7"/>
         <v>1.6483516483516199E-2</v>
       </c>
-      <c r="G83">
-        <f>(C83-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G83" s="17">
+        <f t="shared" si="8"/>
         <v>6.9915254237288046E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.22289999999999999</v>
       </c>
@@ -18475,20 +18523,20 @@
       <c r="C84">
         <v>0.1759</v>
       </c>
-      <c r="E84">
-        <f>(A84-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E84" s="17">
+        <f t="shared" si="6"/>
         <v>7.6775431861803769E-3</v>
       </c>
-      <c r="F84">
-        <f>(B84-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F84" s="17">
+        <f t="shared" si="7"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G84">
-        <f>(C84-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G84" s="17">
+        <f t="shared" si="8"/>
         <v>8.8983050847457792E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0.22289999999999999</v>
       </c>
@@ -18498,20 +18546,20 @@
       <c r="C85">
         <v>0.1749</v>
       </c>
-      <c r="E85">
-        <f>(A85-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E85" s="17">
+        <f t="shared" si="6"/>
         <v>7.6775431861803769E-3</v>
       </c>
-      <c r="F85">
-        <f>(B85-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F85" s="17">
+        <f t="shared" si="7"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G85">
-        <f>(C85-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G85" s="17">
+        <f t="shared" si="8"/>
         <v>6.7796610169491678E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.2228</v>
       </c>
@@ -18521,20 +18569,20 @@
       <c r="C86">
         <v>0.17649999999999999</v>
       </c>
-      <c r="E86">
-        <f>(A86-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E86" s="17">
+        <f t="shared" si="6"/>
         <v>6.7178502879079293E-3</v>
       </c>
-      <c r="F86">
-        <f>(B86-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F86" s="17">
+        <f t="shared" si="7"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G86">
-        <f>(C86-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G86" s="17">
+        <f t="shared" si="8"/>
         <v>0.10169491525423721</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.2228</v>
       </c>
@@ -18544,20 +18592,20 @@
       <c r="C87">
         <v>0.17599999999999999</v>
       </c>
-      <c r="E87">
-        <f>(A87-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E87" s="17">
+        <f t="shared" si="6"/>
         <v>6.7178502879079293E-3</v>
       </c>
-      <c r="F87">
-        <f>(B87-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F87" s="17">
+        <f t="shared" si="7"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G87">
-        <f>(C87-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G87" s="17">
+        <f t="shared" si="8"/>
         <v>9.1101694915254161E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.2228</v>
       </c>
@@ -18567,20 +18615,20 @@
       <c r="C88">
         <v>0.1764</v>
       </c>
-      <c r="E88">
-        <f>(A88-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E88" s="17">
+        <f t="shared" si="6"/>
         <v>6.7178502879079293E-3</v>
       </c>
-      <c r="F88">
-        <f>(B88-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F88" s="17">
+        <f t="shared" si="7"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G88">
-        <f>(C88-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G88" s="17">
+        <f t="shared" si="8"/>
         <v>9.9576271186440843E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0.2228</v>
       </c>
@@ -18590,20 +18638,20 @@
       <c r="C89">
         <v>0.17630000000000001</v>
       </c>
-      <c r="E89">
-        <f>(A89-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E89" s="17">
+        <f t="shared" si="6"/>
         <v>6.7178502879079293E-3</v>
       </c>
-      <c r="F89">
-        <f>(B89-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F89" s="17">
+        <f t="shared" si="7"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G89">
-        <f>(C89-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G89" s="17">
+        <f t="shared" si="8"/>
         <v>9.745762711864446E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.2228</v>
       </c>
@@ -18613,20 +18661,20 @@
       <c r="C90">
         <v>0.17549999999999999</v>
       </c>
-      <c r="E90">
-        <f>(A90-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E90" s="17">
+        <f t="shared" si="6"/>
         <v>6.7178502879079293E-3</v>
       </c>
-      <c r="F90">
-        <f>(B90-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F90" s="17">
+        <f t="shared" si="7"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G90">
-        <f>(C90-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G90" s="17">
+        <f t="shared" si="8"/>
         <v>8.0508474576271111E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.2228</v>
       </c>
@@ -18636,20 +18684,20 @@
       <c r="C91">
         <v>0.1744</v>
       </c>
-      <c r="E91">
-        <f>(A91-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E91" s="17">
+        <f t="shared" si="6"/>
         <v>6.7178502879079293E-3</v>
       </c>
-      <c r="F91">
-        <f>(B91-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F91" s="17">
+        <f t="shared" si="7"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G91">
-        <f>(C91-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G91" s="17">
+        <f t="shared" si="8"/>
         <v>5.7203389830508621E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.2228</v>
       </c>
@@ -18659,20 +18707,20 @@
       <c r="C92">
         <v>0.17430000000000001</v>
       </c>
-      <c r="E92">
-        <f>(A92-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E92" s="17">
+        <f t="shared" si="6"/>
         <v>6.7178502879079293E-3</v>
       </c>
-      <c r="F92">
-        <f>(B92-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F92" s="17">
+        <f t="shared" si="7"/>
         <v>1.6483516483516199E-2</v>
       </c>
-      <c r="G92">
-        <f>(C92-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G92" s="17">
+        <f t="shared" si="8"/>
         <v>5.5084745762712245E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.2228</v>
       </c>
@@ -18682,20 +18730,20 @@
       <c r="C93">
         <v>0.17499999999999999</v>
       </c>
-      <c r="E93">
-        <f>(A93-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E93" s="17">
+        <f t="shared" si="6"/>
         <v>6.7178502879079293E-3</v>
       </c>
-      <c r="F93">
-        <f>(B93-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F93" s="17">
+        <f t="shared" si="7"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G93">
-        <f>(C93-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G93" s="17">
+        <f t="shared" si="8"/>
         <v>6.9915254237288046E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.2228</v>
       </c>
@@ -18705,20 +18753,20 @@
       <c r="C94">
         <v>0.17560000000000001</v>
       </c>
-      <c r="E94">
-        <f>(A94-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E94" s="17">
+        <f t="shared" si="6"/>
         <v>6.7178502879079293E-3</v>
       </c>
-      <c r="F94">
-        <f>(B94-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F94" s="17">
+        <f t="shared" si="7"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G94">
-        <f>(C94-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G94" s="17">
+        <f t="shared" si="8"/>
         <v>8.2627118644068076E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.22270000000000001</v>
       </c>
@@ -18728,20 +18776,20 @@
       <c r="C95">
         <v>0.17449999999999999</v>
       </c>
-      <c r="E95">
-        <f>(A95-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E95" s="17">
+        <f t="shared" si="6"/>
         <v>5.7581573896354826E-3</v>
       </c>
-      <c r="F95">
-        <f>(B95-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F95" s="17">
+        <f t="shared" si="7"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G95">
-        <f>(C95-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G95" s="17">
+        <f t="shared" si="8"/>
         <v>5.9322033898304996E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.22270000000000001</v>
       </c>
@@ -18751,20 +18799,20 @@
       <c r="C96">
         <v>0.17519999999999999</v>
       </c>
-      <c r="E96">
-        <f>(A96-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E96" s="17">
+        <f t="shared" si="6"/>
         <v>5.7581573896354826E-3</v>
       </c>
-      <c r="F96">
-        <f>(B96-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F96" s="17">
+        <f t="shared" si="7"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G96">
-        <f>(C96-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G96" s="17">
+        <f t="shared" si="8"/>
         <v>7.4152542372881394E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.22270000000000001</v>
       </c>
@@ -18774,20 +18822,20 @@
       <c r="C97">
         <v>0.17449999999999999</v>
       </c>
-      <c r="E97">
-        <f>(A97-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E97" s="17">
+        <f t="shared" si="6"/>
         <v>5.7581573896354826E-3</v>
       </c>
-      <c r="F97">
-        <f>(B97-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F97" s="17">
+        <f t="shared" si="7"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G97">
-        <f>(C97-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G97" s="17">
+        <f t="shared" si="8"/>
         <v>5.9322033898304996E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.22270000000000001</v>
       </c>
@@ -18797,20 +18845,20 @@
       <c r="C98">
         <v>0.1767</v>
       </c>
-      <c r="E98">
-        <f>(A98-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E98" s="17">
+        <f t="shared" ref="E98:E129" si="9">(A98-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
         <v>5.7581573896354826E-3</v>
       </c>
-      <c r="F98">
-        <f>(B98-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F98" s="17">
+        <f t="shared" ref="F98:F129" si="10">(B98-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G98">
-        <f>(C98-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G98" s="17">
+        <f t="shared" ref="G98:G129" si="11">(C98-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
         <v>0.10593220338983056</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0.22270000000000001</v>
       </c>
@@ -18820,20 +18868,20 @@
       <c r="C99">
         <v>0.1772</v>
       </c>
-      <c r="E99">
-        <f>(A99-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E99" s="17">
+        <f t="shared" si="9"/>
         <v>5.7581573896354826E-3</v>
       </c>
-      <c r="F99">
-        <f>(B99-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F99" s="17">
+        <f t="shared" si="10"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G99">
-        <f>(C99-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G99" s="17">
+        <f t="shared" si="11"/>
         <v>0.11652542372881361</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.22270000000000001</v>
       </c>
@@ -18843,20 +18891,20 @@
       <c r="C100">
         <v>0.17469999999999999</v>
       </c>
-      <c r="E100">
-        <f>(A100-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E100" s="17">
+        <f t="shared" si="9"/>
         <v>5.7581573896354826E-3</v>
       </c>
-      <c r="F100">
-        <f>(B100-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F100" s="17">
+        <f t="shared" si="10"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G100">
-        <f>(C100-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G100" s="17">
+        <f t="shared" si="11"/>
         <v>6.355932203389833E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0.22270000000000001</v>
       </c>
@@ -18866,20 +18914,20 @@
       <c r="C101">
         <v>0.17780000000000001</v>
       </c>
-      <c r="E101">
-        <f>(A101-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E101" s="17">
+        <f t="shared" si="9"/>
         <v>5.7581573896354826E-3</v>
       </c>
-      <c r="F101">
-        <f>(B101-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F101" s="17">
+        <f t="shared" si="10"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G101">
-        <f>(C101-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G101" s="17">
+        <f t="shared" si="11"/>
         <v>0.12923728813559363</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0.22270000000000001</v>
       </c>
@@ -18889,20 +18937,20 @@
       <c r="C102">
         <v>0.1762</v>
       </c>
-      <c r="E102">
-        <f>(A102-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E102" s="17">
+        <f t="shared" si="9"/>
         <v>5.7581573896354826E-3</v>
       </c>
-      <c r="F102">
-        <f>(B102-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F102" s="17">
+        <f t="shared" si="10"/>
         <v>1.6483516483516199E-2</v>
       </c>
-      <c r="G102">
-        <f>(C102-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G102" s="17">
+        <f t="shared" si="11"/>
         <v>9.5338983050847509E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0.22270000000000001</v>
       </c>
@@ -18912,20 +18960,20 @@
       <c r="C103">
         <v>0.1749</v>
       </c>
-      <c r="E103">
-        <f>(A103-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E103" s="17">
+        <f t="shared" si="9"/>
         <v>5.7581573896354826E-3</v>
       </c>
-      <c r="F103">
-        <f>(B103-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F103" s="17">
+        <f t="shared" si="10"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G103">
-        <f>(C103-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G103" s="17">
+        <f t="shared" si="11"/>
         <v>6.7796610169491678E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0.22270000000000001</v>
       </c>
@@ -18935,20 +18983,20 @@
       <c r="C104">
         <v>0.17530000000000001</v>
       </c>
-      <c r="E104">
-        <f>(A104-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E104" s="17">
+        <f t="shared" si="9"/>
         <v>5.7581573896354826E-3</v>
       </c>
-      <c r="F104">
-        <f>(B104-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F104" s="17">
+        <f t="shared" si="10"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G104">
-        <f>(C104-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G104" s="17">
+        <f t="shared" si="11"/>
         <v>7.627118644067836E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0.22270000000000001</v>
       </c>
@@ -18958,20 +19006,20 @@
       <c r="C105">
         <v>0.1754</v>
       </c>
-      <c r="E105">
-        <f>(A105-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E105" s="17">
+        <f t="shared" si="9"/>
         <v>5.7581573896354826E-3</v>
       </c>
-      <c r="F105">
-        <f>(B105-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F105" s="17">
+        <f t="shared" si="10"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G105">
-        <f>(C105-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G105" s="17">
+        <f t="shared" si="11"/>
         <v>7.8389830508474728E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0.22270000000000001</v>
       </c>
@@ -18981,20 +19029,20 @@
       <c r="C106">
         <v>0.17480000000000001</v>
       </c>
-      <c r="E106">
-        <f>(A106-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E106" s="17">
+        <f t="shared" si="9"/>
         <v>5.7581573896354826E-3</v>
       </c>
-      <c r="F106">
-        <f>(B106-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F106" s="17">
+        <f t="shared" si="10"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G106">
-        <f>(C106-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G106" s="17">
+        <f t="shared" si="11"/>
         <v>6.5677966101695295E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0.22270000000000001</v>
       </c>
@@ -19004,20 +19052,20 @@
       <c r="C107">
         <v>0.17649999999999999</v>
       </c>
-      <c r="E107">
-        <f>(A107-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E107" s="17">
+        <f t="shared" si="9"/>
         <v>5.7581573896354826E-3</v>
       </c>
-      <c r="F107">
-        <f>(B107-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F107" s="17">
+        <f t="shared" si="10"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G107">
-        <f>(C107-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G107" s="17">
+        <f t="shared" si="11"/>
         <v>0.10169491525423721</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>0.22270000000000001</v>
       </c>
@@ -19027,20 +19075,20 @@
       <c r="C108">
         <v>0.17460000000000001</v>
       </c>
-      <c r="E108">
-        <f>(A108-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E108" s="17">
+        <f t="shared" si="9"/>
         <v>5.7581573896354826E-3</v>
       </c>
-      <c r="F108">
-        <f>(B108-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F108" s="17">
+        <f t="shared" si="10"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G108">
-        <f>(C108-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G108" s="17">
+        <f t="shared" si="11"/>
         <v>6.1440677966101961E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>0.22270000000000001</v>
       </c>
@@ -19050,20 +19098,20 @@
       <c r="C109">
         <v>0.1739</v>
       </c>
-      <c r="E109">
-        <f>(A109-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E109" s="17">
+        <f t="shared" si="9"/>
         <v>5.7581573896354826E-3</v>
       </c>
-      <c r="F109">
-        <f>(B109-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F109" s="17">
+        <f t="shared" si="10"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G109">
-        <f>(C109-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G109" s="17">
+        <f t="shared" si="11"/>
         <v>4.6610169491525563E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0.22270000000000001</v>
       </c>
@@ -19073,20 +19121,20 @@
       <c r="C110">
         <v>0.17460000000000001</v>
       </c>
-      <c r="E110">
-        <f>(A110-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E110" s="17">
+        <f t="shared" si="9"/>
         <v>5.7581573896354826E-3</v>
       </c>
-      <c r="F110">
-        <f>(B110-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F110" s="17">
+        <f t="shared" si="10"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G110">
-        <f>(C110-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G110" s="17">
+        <f t="shared" si="11"/>
         <v>6.1440677966101961E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0.22259999999999999</v>
       </c>
@@ -19096,20 +19144,20 @@
       <c r="C111">
         <v>0.17510000000000001</v>
       </c>
-      <c r="E111">
-        <f>(A111-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E111" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F111">
-        <f>(B111-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F111" s="17">
+        <f t="shared" si="10"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G111">
-        <f>(C111-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G111" s="17">
+        <f t="shared" si="11"/>
         <v>7.2033898305085012E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0.22259999999999999</v>
       </c>
@@ -19119,20 +19167,20 @@
       <c r="C112">
         <v>0.1739</v>
       </c>
-      <c r="E112">
-        <f>(A112-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E112" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F112">
-        <f>(B112-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F112" s="17">
+        <f t="shared" si="10"/>
         <v>1.6483516483516199E-2</v>
       </c>
-      <c r="G112">
-        <f>(C112-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G112" s="17">
+        <f t="shared" si="11"/>
         <v>4.6610169491525563E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0.22259999999999999</v>
       </c>
@@ -19142,20 +19190,20 @@
       <c r="C113">
         <v>0.17430000000000001</v>
       </c>
-      <c r="E113">
-        <f>(A113-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E113" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F113">
-        <f>(B113-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F113" s="17">
+        <f t="shared" si="10"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G113">
-        <f>(C113-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G113" s="17">
+        <f t="shared" si="11"/>
         <v>5.5084745762712245E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0.22259999999999999</v>
       </c>
@@ -19165,20 +19213,20 @@
       <c r="C114">
         <v>0.17680000000000001</v>
       </c>
-      <c r="E114">
-        <f>(A114-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E114" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F114">
-        <f>(B114-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F114" s="17">
+        <f t="shared" si="10"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G114">
-        <f>(C114-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G114" s="17">
+        <f t="shared" si="11"/>
         <v>0.10805084745762752</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0.22259999999999999</v>
       </c>
@@ -19188,20 +19236,20 @@
       <c r="C115">
         <v>0.1744</v>
       </c>
-      <c r="E115">
-        <f>(A115-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E115" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F115">
-        <f>(B115-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F115" s="17">
+        <f t="shared" si="10"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G115">
-        <f>(C115-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G115" s="17">
+        <f t="shared" si="11"/>
         <v>5.7203389830508621E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>0.22259999999999999</v>
       </c>
@@ -19211,20 +19259,20 @@
       <c r="C116">
         <v>0.1736</v>
       </c>
-      <c r="E116">
-        <f>(A116-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E116" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F116">
-        <f>(B116-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F116" s="17">
+        <f t="shared" si="10"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G116">
-        <f>(C116-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G116" s="17">
+        <f t="shared" si="11"/>
         <v>4.0254237288135847E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>0.22259999999999999</v>
       </c>
@@ -19234,20 +19282,20 @@
       <c r="C117">
         <v>0.17469999999999999</v>
       </c>
-      <c r="E117">
-        <f>(A117-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E117" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F117">
-        <f>(B117-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F117" s="17">
+        <f t="shared" si="10"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G117">
-        <f>(C117-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G117" s="17">
+        <f t="shared" si="11"/>
         <v>6.355932203389833E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>0.22259999999999999</v>
       </c>
@@ -19257,20 +19305,20 @@
       <c r="C118">
         <v>0.17369999999999999</v>
       </c>
-      <c r="E118">
-        <f>(A118-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E118" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F118">
-        <f>(B118-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F118" s="17">
+        <f t="shared" si="10"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G118">
-        <f>(C118-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G118" s="17">
+        <f t="shared" si="11"/>
         <v>4.2372881355932222E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0.22259999999999999</v>
       </c>
@@ -19280,20 +19328,20 @@
       <c r="C119">
         <v>0.1736</v>
       </c>
-      <c r="E119">
-        <f>(A119-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E119" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F119">
-        <f>(B119-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F119" s="17">
+        <f t="shared" si="10"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G119">
-        <f>(C119-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G119" s="17">
+        <f t="shared" si="11"/>
         <v>4.0254237288135847E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>0.22259999999999999</v>
       </c>
@@ -19303,20 +19351,20 @@
       <c r="C120">
         <v>0.17419999999999999</v>
       </c>
-      <c r="E120">
-        <f>(A120-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E120" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F120">
-        <f>(B120-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F120" s="17">
+        <f t="shared" si="10"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G120">
-        <f>(C120-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G120" s="17">
+        <f t="shared" si="11"/>
         <v>5.296610169491528E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>0.22259999999999999</v>
       </c>
@@ -19326,20 +19374,20 @@
       <c r="C121">
         <v>0.17430000000000001</v>
       </c>
-      <c r="E121">
-        <f>(A121-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E121" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F121">
-        <f>(B121-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F121" s="17">
+        <f t="shared" si="10"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G121">
-        <f>(C121-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G121" s="17">
+        <f t="shared" si="11"/>
         <v>5.5084745762712245E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0.22259999999999999</v>
       </c>
@@ -19349,20 +19397,20 @@
       <c r="C122">
         <v>0.1749</v>
       </c>
-      <c r="E122">
-        <f>(A122-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E122" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F122">
-        <f>(B122-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F122" s="17">
+        <f t="shared" si="10"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G122">
-        <f>(C122-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G122" s="17">
+        <f t="shared" si="11"/>
         <v>6.7796610169491678E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0.22259999999999999</v>
       </c>
@@ -19372,20 +19420,20 @@
       <c r="C123">
         <v>0.17430000000000001</v>
       </c>
-      <c r="E123">
-        <f>(A123-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E123" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F123">
-        <f>(B123-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F123" s="17">
+        <f t="shared" si="10"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G123">
-        <f>(C123-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G123" s="17">
+        <f t="shared" si="11"/>
         <v>5.5084745762712245E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>0.22259999999999999</v>
       </c>
@@ -19395,20 +19443,20 @@
       <c r="C124">
         <v>0.17530000000000001</v>
       </c>
-      <c r="E124">
-        <f>(A124-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E124" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F124">
-        <f>(B124-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F124" s="17">
+        <f t="shared" si="10"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G124">
-        <f>(C124-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G124" s="17">
+        <f t="shared" si="11"/>
         <v>7.627118644067836E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>0.22259999999999999</v>
       </c>
@@ -19418,20 +19466,20 @@
       <c r="C125">
         <v>0.17480000000000001</v>
       </c>
-      <c r="E125">
-        <f>(A125-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E125" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F125">
-        <f>(B125-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F125" s="17">
+        <f t="shared" si="10"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G125">
-        <f>(C125-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G125" s="17">
+        <f t="shared" si="11"/>
         <v>6.5677966101695295E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>0.22259999999999999</v>
       </c>
@@ -19441,20 +19489,20 @@
       <c r="C126">
         <v>0.17299999999999999</v>
       </c>
-      <c r="E126">
-        <f>(A126-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E126" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F126">
-        <f>(B126-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F126" s="17">
+        <f t="shared" si="10"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G126">
-        <f>(C126-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G126" s="17">
+        <f t="shared" si="11"/>
         <v>2.7542372881355828E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>0.22259999999999999</v>
       </c>
@@ -19464,20 +19512,20 @@
       <c r="C127">
         <v>0.1744</v>
       </c>
-      <c r="E127">
-        <f>(A127-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E127" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F127">
-        <f>(B127-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F127" s="17">
+        <f t="shared" si="10"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G127">
-        <f>(C127-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G127" s="17">
+        <f t="shared" si="11"/>
         <v>5.7203389830508621E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0.22259999999999999</v>
       </c>
@@ -19487,20 +19535,20 @@
       <c r="C128">
         <v>0.1749</v>
       </c>
-      <c r="E128">
-        <f>(A128-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E128" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F128">
-        <f>(B128-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F128" s="17">
+        <f t="shared" si="10"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G128">
-        <f>(C128-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G128" s="17">
+        <f t="shared" si="11"/>
         <v>6.7796610169491678E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0.22259999999999999</v>
       </c>
@@ -19510,20 +19558,20 @@
       <c r="C129">
         <v>0.17469999999999999</v>
       </c>
-      <c r="E129">
-        <f>(A129-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E129" s="17">
+        <f t="shared" si="9"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F129">
-        <f>(B129-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F129" s="17">
+        <f t="shared" si="10"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G129">
-        <f>(C129-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G129" s="17">
+        <f t="shared" si="11"/>
         <v>6.355932203389833E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0.22259999999999999</v>
       </c>
@@ -19533,20 +19581,20 @@
       <c r="C130">
         <v>0.17519999999999999</v>
       </c>
-      <c r="E130">
-        <f>(A130-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E130" s="17">
+        <f t="shared" ref="E130:E161" si="12">(A130-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F130">
-        <f>(B130-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F130" s="17">
+        <f t="shared" ref="F130:F161" si="13">(B130-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G130">
-        <f>(C130-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G130" s="17">
+        <f t="shared" ref="G130:G161" si="14">(C130-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
         <v>7.4152542372881394E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>0.2225</v>
       </c>
@@ -19556,20 +19604,20 @@
       <c r="C131">
         <v>0.17530000000000001</v>
       </c>
-      <c r="E131">
-        <f>(A131-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E131" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F131">
-        <f>(B131-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F131" s="17">
+        <f t="shared" si="13"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G131">
-        <f>(C131-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G131" s="17">
+        <f t="shared" si="14"/>
         <v>7.627118644067836E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>0.2225</v>
       </c>
@@ -19579,20 +19627,20 @@
       <c r="C132">
         <v>0.1734</v>
       </c>
-      <c r="E132">
-        <f>(A132-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E132" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F132">
-        <f>(B132-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F132" s="17">
+        <f t="shared" si="13"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G132">
-        <f>(C132-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G132" s="17">
+        <f t="shared" si="14"/>
         <v>3.6016949152542506E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>0.2225</v>
       </c>
@@ -19602,20 +19650,20 @@
       <c r="C133">
         <v>0.17610000000000001</v>
       </c>
-      <c r="E133">
-        <f>(A133-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E133" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F133">
-        <f>(B133-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F133" s="17">
+        <f t="shared" si="13"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G133">
-        <f>(C133-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G133" s="17">
+        <f t="shared" si="14"/>
         <v>9.3220338983051126E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0.2225</v>
       </c>
@@ -19625,20 +19673,20 @@
       <c r="C134">
         <v>0.17560000000000001</v>
       </c>
-      <c r="E134">
-        <f>(A134-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E134" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F134">
-        <f>(B134-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F134" s="17">
+        <f t="shared" si="13"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G134">
-        <f>(C134-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G134" s="17">
+        <f t="shared" si="14"/>
         <v>8.2627118644068076E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>0.2225</v>
       </c>
@@ -19648,20 +19696,20 @@
       <c r="C135">
         <v>0.17399999999999999</v>
       </c>
-      <c r="E135">
-        <f>(A135-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E135" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F135">
-        <f>(B135-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F135" s="17">
+        <f t="shared" si="13"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G135">
-        <f>(C135-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G135" s="17">
+        <f t="shared" si="14"/>
         <v>4.8728813559321939E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>0.2225</v>
       </c>
@@ -19671,20 +19719,20 @@
       <c r="C136">
         <v>0.17280000000000001</v>
       </c>
-      <c r="E136">
-        <f>(A136-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E136" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F136">
-        <f>(B136-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F136" s="17">
+        <f t="shared" si="13"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G136">
-        <f>(C136-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G136" s="17">
+        <f t="shared" si="14"/>
         <v>2.3305084745763077E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>0.2225</v>
       </c>
@@ -19694,20 +19742,20 @@
       <c r="C137">
         <v>0.1749</v>
       </c>
-      <c r="E137">
-        <f>(A137-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E137" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F137">
-        <f>(B137-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F137" s="17">
+        <f t="shared" si="13"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G137">
-        <f>(C137-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G137" s="17">
+        <f t="shared" si="14"/>
         <v>6.7796610169491678E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0.2225</v>
       </c>
@@ -19717,20 +19765,20 @@
       <c r="C138">
         <v>0.17380000000000001</v>
       </c>
-      <c r="E138">
-        <f>(A138-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E138" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F138">
-        <f>(B138-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F138" s="17">
+        <f t="shared" si="13"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G138">
-        <f>(C138-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G138" s="17">
+        <f t="shared" si="14"/>
         <v>4.4491525423729188E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>0.2225</v>
       </c>
@@ -19740,20 +19788,20 @@
       <c r="C139">
         <v>0.17399999999999999</v>
       </c>
-      <c r="E139">
-        <f>(A139-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E139" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F139">
-        <f>(B139-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F139" s="17">
+        <f t="shared" si="13"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G139">
-        <f>(C139-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G139" s="17">
+        <f t="shared" si="14"/>
         <v>4.8728813559321939E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>0.2225</v>
       </c>
@@ -19763,20 +19811,20 @@
       <c r="C140">
         <v>0.17469999999999999</v>
       </c>
-      <c r="E140">
-        <f>(A140-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E140" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F140">
-        <f>(B140-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F140" s="17">
+        <f t="shared" si="13"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G140">
-        <f>(C140-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G140" s="17">
+        <f t="shared" si="14"/>
         <v>6.355932203389833E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>0.2225</v>
       </c>
@@ -19786,20 +19834,20 @@
       <c r="C141">
         <v>0.17419999999999999</v>
       </c>
-      <c r="E141">
-        <f>(A141-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E141" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F141">
-        <f>(B141-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F141" s="17">
+        <f t="shared" si="13"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G141">
-        <f>(C141-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G141" s="17">
+        <f t="shared" si="14"/>
         <v>5.296610169491528E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>0.2225</v>
       </c>
@@ -19809,20 +19857,20 @@
       <c r="C142">
         <v>0.17480000000000001</v>
       </c>
-      <c r="E142">
-        <f>(A142-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E142" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F142">
-        <f>(B142-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F142" s="17">
+        <f t="shared" si="13"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G142">
-        <f>(C142-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G142" s="17">
+        <f t="shared" si="14"/>
         <v>6.5677966101695295E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>0.2225</v>
       </c>
@@ -19832,20 +19880,20 @@
       <c r="C143">
         <v>0.17480000000000001</v>
       </c>
-      <c r="E143">
-        <f>(A143-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E143" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F143">
-        <f>(B143-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F143" s="17">
+        <f t="shared" si="13"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G143">
-        <f>(C143-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G143" s="17">
+        <f t="shared" si="14"/>
         <v>6.5677966101695295E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>0.2225</v>
       </c>
@@ -19855,20 +19903,20 @@
       <c r="C144">
         <v>0.17549999999999999</v>
       </c>
-      <c r="E144">
-        <f>(A144-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E144" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F144">
-        <f>(B144-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F144" s="17">
+        <f t="shared" si="13"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G144">
-        <f>(C144-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G144" s="17">
+        <f t="shared" si="14"/>
         <v>8.0508474576271111E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>0.2225</v>
       </c>
@@ -19878,20 +19926,20 @@
       <c r="C145">
         <v>0.17499999999999999</v>
       </c>
-      <c r="E145">
-        <f>(A145-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E145" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F145">
-        <f>(B145-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F145" s="17">
+        <f t="shared" si="13"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G145">
-        <f>(C145-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G145" s="17">
+        <f t="shared" si="14"/>
         <v>6.9915254237288046E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>0.22259999999999999</v>
       </c>
@@ -19901,20 +19949,20 @@
       <c r="C146">
         <v>0.17610000000000001</v>
       </c>
-      <c r="E146">
-        <f>(A146-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E146" s="17">
+        <f t="shared" si="12"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F146">
-        <f>(B146-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F146" s="17">
+        <f t="shared" si="13"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G146">
-        <f>(C146-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G146" s="17">
+        <f t="shared" si="14"/>
         <v>9.3220338983051126E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>0.22259999999999999</v>
       </c>
@@ -19924,20 +19972,20 @@
       <c r="C147">
         <v>0.17369999999999999</v>
       </c>
-      <c r="E147">
-        <f>(A147-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E147" s="17">
+        <f t="shared" si="12"/>
         <v>4.7984644913627687E-3</v>
       </c>
-      <c r="F147">
-        <f>(B147-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F147" s="17">
+        <f t="shared" si="13"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G147">
-        <f>(C147-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G147" s="17">
+        <f t="shared" si="14"/>
         <v>4.2372881355932222E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>0.2225</v>
       </c>
@@ -19947,20 +19995,20 @@
       <c r="C148">
         <v>0.17399999999999999</v>
       </c>
-      <c r="E148">
-        <f>(A148-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E148" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F148">
-        <f>(B148-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F148" s="17">
+        <f t="shared" si="13"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G148">
-        <f>(C148-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G148" s="17">
+        <f t="shared" si="14"/>
         <v>4.8728813559321939E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>0.2225</v>
       </c>
@@ -19970,20 +20018,20 @@
       <c r="C149">
         <v>0.17419999999999999</v>
       </c>
-      <c r="E149">
-        <f>(A149-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E149" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F149">
-        <f>(B149-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F149" s="17">
+        <f t="shared" si="13"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G149">
-        <f>(C149-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G149" s="17">
+        <f t="shared" si="14"/>
         <v>5.296610169491528E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>0.2225</v>
       </c>
@@ -19993,20 +20041,20 @@
       <c r="C150">
         <v>0.17530000000000001</v>
       </c>
-      <c r="E150">
-        <f>(A150-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E150" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F150">
-        <f>(B150-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F150" s="17">
+        <f t="shared" si="13"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G150">
-        <f>(C150-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G150" s="17">
+        <f t="shared" si="14"/>
         <v>7.627118644067836E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>0.2225</v>
       </c>
@@ -20016,20 +20064,20 @@
       <c r="C151">
         <v>0.17319999999999999</v>
       </c>
-      <c r="E151">
-        <f>(A151-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E151" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F151">
-        <f>(B151-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F151" s="17">
+        <f t="shared" si="13"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G151">
-        <f>(C151-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G151" s="17">
+        <f t="shared" si="14"/>
         <v>3.1779661016949165E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>0.2225</v>
       </c>
@@ -20039,20 +20087,20 @@
       <c r="C152">
         <v>0.17430000000000001</v>
       </c>
-      <c r="E152">
-        <f>(A152-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E152" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F152">
-        <f>(B152-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F152" s="17">
+        <f t="shared" si="13"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G152">
-        <f>(C152-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G152" s="17">
+        <f t="shared" si="14"/>
         <v>5.5084745762712245E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>0.2225</v>
       </c>
@@ -20062,20 +20110,20 @@
       <c r="C153">
         <v>0.1721</v>
       </c>
-      <c r="E153">
-        <f>(A153-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E153" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F153">
-        <f>(B153-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F153" s="17">
+        <f t="shared" si="13"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G153">
-        <f>(C153-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G153" s="17">
+        <f t="shared" si="14"/>
         <v>8.47457627118668E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>0.2225</v>
       </c>
@@ -20085,20 +20133,20 @@
       <c r="C154">
         <v>0.17499999999999999</v>
       </c>
-      <c r="E154">
-        <f>(A154-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E154" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F154">
-        <f>(B154-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F154" s="17">
+        <f t="shared" si="13"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G154">
-        <f>(C154-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G154" s="17">
+        <f t="shared" si="14"/>
         <v>6.9915254237288046E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0.2225</v>
       </c>
@@ -20108,20 +20156,20 @@
       <c r="C155">
         <v>0.17510000000000001</v>
       </c>
-      <c r="E155">
-        <f>(A155-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E155" s="17">
+        <f t="shared" si="12"/>
         <v>3.8387715930903216E-3</v>
       </c>
-      <c r="F155">
-        <f>(B155-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F155" s="17">
+        <f t="shared" si="13"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G155">
-        <f>(C155-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G155" s="17">
+        <f t="shared" si="14"/>
         <v>7.2033898305085012E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>0.22239999999999999</v>
       </c>
@@ -20131,20 +20179,20 @@
       <c r="C156">
         <v>0.1734</v>
       </c>
-      <c r="E156">
-        <f>(A156-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E156" s="17">
+        <f t="shared" si="12"/>
         <v>2.8790786948176082E-3</v>
       </c>
-      <c r="F156">
-        <f>(B156-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F156" s="17">
+        <f t="shared" si="13"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G156">
-        <f>(C156-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G156" s="17">
+        <f t="shared" si="14"/>
         <v>3.6016949152542506E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>0.22239999999999999</v>
       </c>
@@ -20154,20 +20202,20 @@
       <c r="C157">
         <v>0.1721</v>
       </c>
-      <c r="E157">
-        <f>(A157-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E157" s="17">
+        <f t="shared" si="12"/>
         <v>2.8790786948176082E-3</v>
       </c>
-      <c r="F157">
-        <f>(B157-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F157" s="17">
+        <f t="shared" si="13"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G157">
-        <f>(C157-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G157" s="17">
+        <f t="shared" si="14"/>
         <v>8.47457627118668E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>0.22239999999999999</v>
       </c>
@@ -20177,20 +20225,20 @@
       <c r="C158">
         <v>0.17449999999999999</v>
       </c>
-      <c r="E158">
-        <f>(A158-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E158" s="17">
+        <f t="shared" si="12"/>
         <v>2.8790786948176082E-3</v>
       </c>
-      <c r="F158">
-        <f>(B158-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F158" s="17">
+        <f t="shared" si="13"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G158">
-        <f>(C158-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G158" s="17">
+        <f t="shared" si="14"/>
         <v>5.9322033898304996E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>0.22239999999999999</v>
       </c>
@@ -20200,20 +20248,20 @@
       <c r="C159">
         <v>0.17380000000000001</v>
       </c>
-      <c r="E159">
-        <f>(A159-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E159" s="17">
+        <f t="shared" si="12"/>
         <v>2.8790786948176082E-3</v>
       </c>
-      <c r="F159">
-        <f>(B159-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F159" s="17">
+        <f t="shared" si="13"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G159">
-        <f>(C159-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G159" s="17">
+        <f t="shared" si="14"/>
         <v>4.4491525423729188E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>0.22239999999999999</v>
       </c>
@@ -20223,20 +20271,20 @@
       <c r="C160">
         <v>0.1739</v>
       </c>
-      <c r="E160">
-        <f>(A160-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E160" s="17">
+        <f t="shared" si="12"/>
         <v>2.8790786948176082E-3</v>
       </c>
-      <c r="F160">
-        <f>(B160-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F160" s="17">
+        <f t="shared" si="13"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G160">
-        <f>(C160-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G160" s="17">
+        <f t="shared" si="14"/>
         <v>4.6610169491525563E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>0.22239999999999999</v>
       </c>
@@ -20246,20 +20294,20 @@
       <c r="C161">
         <v>0.17419999999999999</v>
       </c>
-      <c r="E161">
-        <f>(A161-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E161" s="17">
+        <f t="shared" si="12"/>
         <v>2.8790786948176082E-3</v>
       </c>
-      <c r="F161">
-        <f>(B161-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F161" s="17">
+        <f t="shared" si="13"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G161">
-        <f>(C161-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G161" s="17">
+        <f t="shared" si="14"/>
         <v>5.296610169491528E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>0.22239999999999999</v>
       </c>
@@ -20269,20 +20317,20 @@
       <c r="C162">
         <v>0.17380000000000001</v>
       </c>
-      <c r="E162">
-        <f>(A162-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E162" s="17">
+        <f t="shared" ref="E162:E193" si="15">(A162-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
         <v>2.8790786948176082E-3</v>
       </c>
-      <c r="F162">
-        <f>(B162-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F162" s="17">
+        <f t="shared" ref="F162:F193" si="16">(B162-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G162">
-        <f>(C162-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G162" s="17">
+        <f t="shared" ref="G162:G193" si="17">(C162-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
         <v>4.4491525423729188E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>0.22239999999999999</v>
       </c>
@@ -20292,20 +20340,20 @@
       <c r="C163">
         <v>0.17380000000000001</v>
       </c>
-      <c r="E163">
-        <f>(A163-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E163" s="17">
+        <f t="shared" si="15"/>
         <v>2.8790786948176082E-3</v>
       </c>
-      <c r="F163">
-        <f>(B163-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F163" s="17">
+        <f t="shared" si="16"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G163">
-        <f>(C163-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G163" s="17">
+        <f t="shared" si="17"/>
         <v>4.4491525423729188E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>0.22239999999999999</v>
       </c>
@@ -20315,20 +20363,20 @@
       <c r="C164">
         <v>0.17369999999999999</v>
       </c>
-      <c r="E164">
-        <f>(A164-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E164" s="17">
+        <f t="shared" si="15"/>
         <v>2.8790786948176082E-3</v>
       </c>
-      <c r="F164">
-        <f>(B164-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F164" s="17">
+        <f t="shared" si="16"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G164">
-        <f>(C164-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G164" s="17">
+        <f t="shared" si="17"/>
         <v>4.2372881355932222E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>0.2223</v>
       </c>
@@ -20338,20 +20386,20 @@
       <c r="C165">
         <v>0.17380000000000001</v>
       </c>
-      <c r="E165">
-        <f>(A165-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E165" s="17">
+        <f t="shared" si="15"/>
         <v>1.9193857965451608E-3</v>
       </c>
-      <c r="F165">
-        <f>(B165-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F165" s="17">
+        <f t="shared" si="16"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G165">
-        <f>(C165-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G165" s="17">
+        <f t="shared" si="17"/>
         <v>4.4491525423729188E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0.2223</v>
       </c>
@@ -20361,20 +20409,20 @@
       <c r="C166">
         <v>0.17269999999999999</v>
       </c>
-      <c r="E166">
-        <f>(A166-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E166" s="17">
+        <f t="shared" si="15"/>
         <v>1.9193857965451608E-3</v>
       </c>
-      <c r="F166">
-        <f>(B166-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F166" s="17">
+        <f t="shared" si="16"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G166">
-        <f>(C166-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G166" s="17">
+        <f t="shared" si="17"/>
         <v>2.1186440677966111E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>0.2223</v>
       </c>
@@ -20384,20 +20432,20 @@
       <c r="C167">
         <v>0.17419999999999999</v>
       </c>
-      <c r="E167">
-        <f>(A167-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E167" s="17">
+        <f t="shared" si="15"/>
         <v>1.9193857965451608E-3</v>
       </c>
-      <c r="F167">
-        <f>(B167-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F167" s="17">
+        <f t="shared" si="16"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G167">
-        <f>(C167-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G167" s="17">
+        <f t="shared" si="17"/>
         <v>5.296610169491528E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>0.2223</v>
       </c>
@@ -20407,20 +20455,20 @@
       <c r="C168">
         <v>0.1731</v>
       </c>
-      <c r="E168">
-        <f>(A168-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E168" s="17">
+        <f t="shared" si="15"/>
         <v>1.9193857965451608E-3</v>
       </c>
-      <c r="F168">
-        <f>(B168-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F168" s="17">
+        <f t="shared" si="16"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G168">
-        <f>(C168-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G168" s="17">
+        <f t="shared" si="17"/>
         <v>2.9661016949152793E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>0.2223</v>
       </c>
@@ -20430,20 +20478,20 @@
       <c r="C169">
         <v>0.1754</v>
       </c>
-      <c r="E169">
-        <f>(A169-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E169" s="17">
+        <f t="shared" si="15"/>
         <v>1.9193857965451608E-3</v>
       </c>
-      <c r="F169">
-        <f>(B169-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F169" s="17">
+        <f t="shared" si="16"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G169">
-        <f>(C169-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G169" s="17">
+        <f t="shared" si="17"/>
         <v>7.8389830508474728E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>0.2223</v>
       </c>
@@ -20453,20 +20501,20 @@
       <c r="C170">
         <v>0.17530000000000001</v>
       </c>
-      <c r="E170">
-        <f>(A170-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E170" s="17">
+        <f t="shared" si="15"/>
         <v>1.9193857965451608E-3</v>
       </c>
-      <c r="F170">
-        <f>(B170-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F170" s="17">
+        <f t="shared" si="16"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G170">
-        <f>(C170-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G170" s="17">
+        <f t="shared" si="17"/>
         <v>7.627118644067836E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>0.2223</v>
       </c>
@@ -20476,20 +20524,20 @@
       <c r="C171">
         <v>0.17549999999999999</v>
       </c>
-      <c r="E171">
-        <f>(A171-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E171" s="17">
+        <f t="shared" si="15"/>
         <v>1.9193857965451608E-3</v>
       </c>
-      <c r="F171">
-        <f>(B171-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F171" s="17">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G171">
-        <f>(C171-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G171" s="17">
+        <f t="shared" si="17"/>
         <v>8.0508474576271111E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>0.2223</v>
       </c>
@@ -20499,20 +20547,20 @@
       <c r="C172">
         <v>0.1739</v>
       </c>
-      <c r="E172">
-        <f>(A172-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E172" s="17">
+        <f t="shared" si="15"/>
         <v>1.9193857965451608E-3</v>
       </c>
-      <c r="F172">
-        <f>(B172-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F172" s="17">
+        <f t="shared" si="16"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G172">
-        <f>(C172-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G172" s="17">
+        <f t="shared" si="17"/>
         <v>4.6610169491525563E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>0.2223</v>
       </c>
@@ -20522,20 +20570,20 @@
       <c r="C173">
         <v>0.17280000000000001</v>
       </c>
-      <c r="E173">
-        <f>(A173-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E173" s="17">
+        <f t="shared" si="15"/>
         <v>1.9193857965451608E-3</v>
       </c>
-      <c r="F173">
-        <f>(B173-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F173" s="17">
+        <f t="shared" si="16"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G173">
-        <f>(C173-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G173" s="17">
+        <f t="shared" si="17"/>
         <v>2.3305084745763077E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>0.2223</v>
       </c>
@@ -20545,20 +20593,20 @@
       <c r="C174">
         <v>0.17419999999999999</v>
       </c>
-      <c r="E174">
-        <f>(A174-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E174" s="17">
+        <f t="shared" si="15"/>
         <v>1.9193857965451608E-3</v>
       </c>
-      <c r="F174">
-        <f>(B174-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F174" s="17">
+        <f t="shared" si="16"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G174">
-        <f>(C174-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G174" s="17">
+        <f t="shared" si="17"/>
         <v>5.296610169491528E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>0.2223</v>
       </c>
@@ -20568,20 +20616,20 @@
       <c r="C175">
         <v>0.17460000000000001</v>
       </c>
-      <c r="E175">
-        <f>(A175-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E175" s="17">
+        <f t="shared" si="15"/>
         <v>1.9193857965451608E-3</v>
       </c>
-      <c r="F175">
-        <f>(B175-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F175" s="17">
+        <f t="shared" si="16"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G175">
-        <f>(C175-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G175" s="17">
+        <f t="shared" si="17"/>
         <v>6.1440677966101961E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>0.2223</v>
       </c>
@@ -20591,20 +20639,20 @@
       <c r="C176">
         <v>0.17330000000000001</v>
       </c>
-      <c r="E176">
-        <f>(A176-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E176" s="17">
+        <f t="shared" si="15"/>
         <v>1.9193857965451608E-3</v>
       </c>
-      <c r="F176">
-        <f>(B176-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F176" s="17">
+        <f t="shared" si="16"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G176">
-        <f>(C176-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G176" s="17">
+        <f t="shared" si="17"/>
         <v>3.389830508474613E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>0.22220000000000001</v>
       </c>
@@ -20614,20 +20662,20 @@
       <c r="C177">
         <v>0.17510000000000001</v>
       </c>
-      <c r="E177">
-        <f>(A177-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E177" s="17">
+        <f t="shared" si="15"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F177">
-        <f>(B177-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F177" s="17">
+        <f t="shared" si="16"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G177">
-        <f>(C177-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G177" s="17">
+        <f t="shared" si="17"/>
         <v>7.2033898305085012E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>0.22220000000000001</v>
       </c>
@@ -20637,20 +20685,20 @@
       <c r="C178">
         <v>0.17169999999999999</v>
       </c>
-      <c r="E178">
-        <f>(A178-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E178" s="17">
+        <f t="shared" si="15"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F178">
-        <f>(B178-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F178" s="17">
+        <f t="shared" si="16"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G178">
-        <f>(C178-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G178" s="17">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>0.22220000000000001</v>
       </c>
@@ -20660,20 +20708,20 @@
       <c r="C179">
         <v>0.1724</v>
       </c>
-      <c r="E179">
-        <f>(A179-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E179" s="17">
+        <f t="shared" si="15"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F179">
-        <f>(B179-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F179" s="17">
+        <f t="shared" si="16"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G179">
-        <f>(C179-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G179" s="17">
+        <f t="shared" si="17"/>
         <v>1.4830508474576396E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>0.22220000000000001</v>
       </c>
@@ -20683,20 +20731,20 @@
       <c r="C180">
         <v>0.17369999999999999</v>
       </c>
-      <c r="E180">
-        <f>(A180-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E180" s="17">
+        <f t="shared" si="15"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F180">
-        <f>(B180-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F180" s="17">
+        <f t="shared" si="16"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G180">
-        <f>(C180-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G180" s="17">
+        <f t="shared" si="17"/>
         <v>4.2372881355932222E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>0.22220000000000001</v>
       </c>
@@ -20706,20 +20754,20 @@
       <c r="C181">
         <v>0.17449999999999999</v>
       </c>
-      <c r="E181">
-        <f>(A181-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E181" s="17">
+        <f t="shared" si="15"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F181">
-        <f>(B181-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F181" s="17">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G181">
-        <f>(C181-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G181" s="17">
+        <f t="shared" si="17"/>
         <v>5.9322033898304996E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>0.22220000000000001</v>
       </c>
@@ -20729,20 +20777,20 @@
       <c r="C182">
         <v>0.17369999999999999</v>
       </c>
-      <c r="E182">
-        <f>(A182-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E182" s="17">
+        <f t="shared" si="15"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F182">
-        <f>(B182-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F182" s="17">
+        <f t="shared" si="16"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G182">
-        <f>(C182-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G182" s="17">
+        <f t="shared" si="17"/>
         <v>4.2372881355932222E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>0.22220000000000001</v>
       </c>
@@ -20752,20 +20800,20 @@
       <c r="C183">
         <v>0.17380000000000001</v>
       </c>
-      <c r="E183">
-        <f>(A183-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E183" s="17">
+        <f t="shared" si="15"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F183">
-        <f>(B183-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F183" s="17">
+        <f t="shared" si="16"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G183">
-        <f>(C183-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G183" s="17">
+        <f t="shared" si="17"/>
         <v>4.4491525423729188E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>0.22220000000000001</v>
       </c>
@@ -20775,20 +20823,20 @@
       <c r="C184">
         <v>0.17299999999999999</v>
       </c>
-      <c r="E184">
-        <f>(A184-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E184" s="17">
+        <f t="shared" si="15"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F184">
-        <f>(B184-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F184" s="17">
+        <f t="shared" si="16"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G184">
-        <f>(C184-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G184" s="17">
+        <f t="shared" si="17"/>
         <v>2.7542372881355828E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>0.22220000000000001</v>
       </c>
@@ -20798,20 +20846,20 @@
       <c r="C185">
         <v>0.17369999999999999</v>
       </c>
-      <c r="E185">
-        <f>(A185-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E185" s="17">
+        <f t="shared" si="15"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F185">
-        <f>(B185-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F185" s="17">
+        <f t="shared" si="16"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G185">
-        <f>(C185-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G185" s="17">
+        <f t="shared" si="17"/>
         <v>4.2372881355932222E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>0.22220000000000001</v>
       </c>
@@ -20821,20 +20869,20 @@
       <c r="C186">
         <v>0.17380000000000001</v>
       </c>
-      <c r="E186">
-        <f>(A186-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E186" s="17">
+        <f t="shared" si="15"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F186">
-        <f>(B186-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F186" s="17">
+        <f t="shared" si="16"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G186">
-        <f>(C186-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G186" s="17">
+        <f t="shared" si="17"/>
         <v>4.4491525423729188E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>0.22220000000000001</v>
       </c>
@@ -20844,20 +20892,20 @@
       <c r="C187">
         <v>0.17460000000000001</v>
       </c>
-      <c r="E187">
-        <f>(A187-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E187" s="17">
+        <f t="shared" si="15"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F187">
-        <f>(B187-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F187" s="17">
+        <f t="shared" si="16"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G187">
-        <f>(C187-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G187" s="17">
+        <f t="shared" si="17"/>
         <v>6.1440677966101961E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>0.22220000000000001</v>
       </c>
@@ -20867,20 +20915,20 @@
       <c r="C188">
         <v>0.17380000000000001</v>
       </c>
-      <c r="E188">
-        <f>(A188-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E188" s="17">
+        <f t="shared" si="15"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F188">
-        <f>(B188-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F188" s="17">
+        <f t="shared" si="16"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G188">
-        <f>(C188-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G188" s="17">
+        <f t="shared" si="17"/>
         <v>4.4491525423729188E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>0.22220000000000001</v>
       </c>
@@ -20890,20 +20938,20 @@
       <c r="C189">
         <v>0.17449999999999999</v>
       </c>
-      <c r="E189">
-        <f>(A189-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E189" s="17">
+        <f t="shared" si="15"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F189">
-        <f>(B189-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F189" s="17">
+        <f t="shared" si="16"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G189">
-        <f>(C189-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G189" s="17">
+        <f t="shared" si="17"/>
         <v>5.9322033898304996E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>0.22220000000000001</v>
       </c>
@@ -20913,20 +20961,20 @@
       <c r="C190">
         <v>0.17519999999999999</v>
       </c>
-      <c r="E190">
-        <f>(A190-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E190" s="17">
+        <f t="shared" si="15"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F190">
-        <f>(B190-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F190" s="17">
+        <f t="shared" si="16"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G190">
-        <f>(C190-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G190" s="17">
+        <f t="shared" si="17"/>
         <v>7.4152542372881394E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>0.22220000000000001</v>
       </c>
@@ -20936,20 +20984,20 @@
       <c r="C191">
         <v>0.17430000000000001</v>
       </c>
-      <c r="E191">
-        <f>(A191-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E191" s="17">
+        <f t="shared" si="15"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F191">
-        <f>(B191-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F191" s="17">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G191">
-        <f>(C191-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G191" s="17">
+        <f t="shared" si="17"/>
         <v>5.5084745762712245E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>0.22220000000000001</v>
       </c>
@@ -20959,20 +21007,20 @@
       <c r="C192">
         <v>0.17219999999999999</v>
       </c>
-      <c r="E192">
-        <f>(A192-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E192" s="17">
+        <f t="shared" si="15"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F192">
-        <f>(B192-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F192" s="17">
+        <f t="shared" si="16"/>
         <v>1.3736263736263753E-2</v>
       </c>
-      <c r="G192">
-        <f>(C192-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G192" s="17">
+        <f t="shared" si="17"/>
         <v>1.0593220338983056E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>0.22220000000000001</v>
       </c>
@@ -20982,20 +21030,20 @@
       <c r="C193">
         <v>0.1734</v>
       </c>
-      <c r="E193">
-        <f>(A193-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E193" s="17">
+        <f t="shared" si="15"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F193">
-        <f>(B193-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F193" s="17">
+        <f t="shared" si="16"/>
         <v>1.0989010989011307E-2</v>
       </c>
-      <c r="G193">
-        <f>(C193-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G193" s="17">
+        <f t="shared" si="17"/>
         <v>3.6016949152542506E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>0.22220000000000001</v>
       </c>
@@ -21005,20 +21053,20 @@
       <c r="C194">
         <v>0.17330000000000001</v>
       </c>
-      <c r="E194">
-        <f>(A194-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E194" s="17">
+        <f t="shared" ref="E194:E201" si="18">(A194-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F194">
-        <f>(B194-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F194" s="17">
+        <f t="shared" ref="F194:F201" si="19">(B194-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G194">
-        <f>(C194-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G194" s="17">
+        <f t="shared" ref="G194:G201" si="20">(C194-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
         <v>3.389830508474613E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>0.22220000000000001</v>
       </c>
@@ -21028,20 +21076,20 @@
       <c r="C195">
         <v>0.1729</v>
       </c>
-      <c r="E195">
-        <f>(A195-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E195" s="17">
+        <f t="shared" si="18"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F195">
-        <f>(B195-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F195" s="17">
+        <f t="shared" si="19"/>
         <v>8.2417582417573364E-3</v>
       </c>
-      <c r="G195">
-        <f>(C195-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G195" s="17">
+        <f t="shared" si="20"/>
         <v>2.5423728813559452E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>0.22220000000000001</v>
       </c>
@@ -21051,20 +21099,20 @@
       <c r="C196">
         <v>0.1719</v>
       </c>
-      <c r="E196">
-        <f>(A196-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E196" s="17">
+        <f t="shared" si="18"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F196">
-        <f>(B196-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F196" s="17">
+        <f t="shared" si="19"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G196">
-        <f>(C196-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G196" s="17">
+        <f t="shared" si="20"/>
         <v>4.23728813559334E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>0.22220000000000001</v>
       </c>
@@ -21074,20 +21122,20 @@
       <c r="C197">
         <v>0.17430000000000001</v>
       </c>
-      <c r="E197">
-        <f>(A197-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E197" s="17">
+        <f t="shared" si="18"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F197">
-        <f>(B197-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F197" s="17">
+        <f t="shared" si="19"/>
         <v>5.4945054945048913E-3</v>
       </c>
-      <c r="G197">
-        <f>(C197-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G197" s="17">
+        <f t="shared" si="20"/>
         <v>5.5084745762712245E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>0.22220000000000001</v>
       </c>
@@ -21097,20 +21145,20 @@
       <c r="C198">
         <v>0.1741</v>
       </c>
-      <c r="E198">
-        <f>(A198-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E198" s="17">
+        <f t="shared" si="18"/>
         <v>9.5969289827271354E-4</v>
       </c>
-      <c r="F198">
-        <f>(B198-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F198" s="17">
+        <f t="shared" si="19"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G198">
-        <f>(C198-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G198" s="17">
+        <f t="shared" si="20"/>
         <v>5.0847457627118904E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>0.22209999999999999</v>
       </c>
@@ -21120,20 +21168,20 @@
       <c r="C199">
         <v>0.17460000000000001</v>
       </c>
-      <c r="E199">
-        <f>(A199-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E199" s="17">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F199">
-        <f>(B199-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F199" s="17">
+        <f t="shared" si="19"/>
         <v>2.7472527472524456E-3</v>
       </c>
-      <c r="G199">
-        <f>(C199-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G199" s="17">
+        <f t="shared" si="20"/>
         <v>6.1440677966101961E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>0.22209999999999999</v>
       </c>
@@ -21143,20 +21191,20 @@
       <c r="C200">
         <v>0.17510000000000001</v>
       </c>
-      <c r="E200">
-        <f>(A200-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E200" s="17">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F200">
-        <f>(B200-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F200" s="17">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G200">
-        <f>(C200-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G200" s="17">
+        <f t="shared" si="20"/>
         <v>7.2033898305085012E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>0.22209999999999999</v>
       </c>
@@ -21166,16 +21214,16 @@
       <c r="C201">
         <v>0.17419999999999999</v>
       </c>
-      <c r="E201">
-        <f>(A201-MIN(A:A)) / (MAX(A:A) - MIN(A:A))</f>
+      <c r="E201" s="17">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F201">
-        <f>(B201-MIN(B:B)) / (MAX(B:B) - MIN(B:B))</f>
+      <c r="F201" s="17">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G201">
-        <f>(C201-MIN(C:C)) / (MAX(C:C) - MIN(C:C))</f>
+      <c r="G201" s="17">
+        <f t="shared" si="20"/>
         <v>5.296610169491528E-2</v>
       </c>
     </row>
